--- a/Четвертый курс/Надежность ЭВМ/Praktika_3.xlsx
+++ b/Четвертый курс/Надежность ЭВМ/Praktika_3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8FD769-78D7-344E-94BB-B1BEBF53C901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA82CF4-46A1-4B2F-AEF0-94969669E6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ненагр" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>задача 2.6</t>
   </si>
@@ -211,9 +210,6 @@
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>ч</t>
   </si>
   <si>
     <t>α</t>
@@ -558,94 +554,10 @@
     <t>Задача 2.12</t>
   </si>
   <si>
-    <t>1/ч</t>
-  </si>
-  <si>
     <t>Если у одного элемента Гамма распределение с параметрами (α, β), если из этих элементов собрана система «1основной+m  резервных» (резерв замещением, ненагруженный), то у системы будет  тоже ГАММАРАСП, но с α*(m+1)</t>
   </si>
   <si>
     <t xml:space="preserve">Экспоненциальное распределение с параметром λ – частный случай гамма-распределения, при этом α=1, β=1/λ. </t>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(t) Общ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(t) Общ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>λ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(t) Общ</t>
-    </r>
   </si>
   <si>
     <r>
@@ -728,6 +640,81 @@
       <t>(t) Поэлем</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(t) Общ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(t) Общ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(t) Общ</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +724,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +762,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -841,18 +850,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -973,23 +982,262 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1000,43 +1248,18 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <left style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1050,15 +1273,83 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1081,55 +1372,98 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1563,147 +1897,19 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2.12'!$B$13:$AG$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>155</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2.12'!$AG$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.12'!$A$27</c:f>
+              <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.3958450308815284E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1DB0-4AFB-B313-813AFA1F5784}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+                  <c:v>λс(t) Поэлем</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1823,107 +2029,104 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.12'!$A$27:$AG$27</c:f>
+              <c:f>'2.12'!$B$27:$AG$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0" formatCode="General">
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.5248868778280556E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5248868778280556E-4</c:v>
+                  <c:v>1.6393442622950828E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6393442622950828E-3</c:v>
+                  <c:v>3.3457249070631954E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3457249070631954E-3</c:v>
+                  <c:v>5.4054054054054066E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4054054054054066E-3</c:v>
+                  <c:v>7.6923076923076936E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6923076923076936E-3</c:v>
+                  <c:v>1.0112359550561795E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0112359550561795E-2</c:v>
+                  <c:v>1.2596401028277632E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2596401028277632E-2</c:v>
+                  <c:v>1.5094339622641511E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5094339622641511E-2</c:v>
+                  <c:v>1.7570498915401304E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7570498915401304E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02</c:v>
+                  <c:v>2.2365988909426988E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2365988909426988E-2</c:v>
+                  <c:v>2.4657534246575342E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4657534246575342E-2</c:v>
+                  <c:v>2.6868044515103363E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6868044515103363E-2</c:v>
+                  <c:v>2.8994082840236697E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8994082840236697E-2</c:v>
+                  <c:v>3.1034482758620703E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1034482758620703E-2</c:v>
+                  <c:v>3.2989690721649492E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2989690721649492E-2</c:v>
+                  <c:v>3.4861278648974668E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4861278648974668E-2</c:v>
+                  <c:v>3.6651583710407248E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.6651583710407248E-2</c:v>
+                  <c:v>3.8363443145589822E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8363443145589822E-2</c:v>
+                  <c:v>4.0000000000000022E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0000000000000022E-2</c:v>
+                  <c:v>4.156456173421301E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.156456173421301E-2</c:v>
+                  <c:v>4.3060498220640564E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3060498220640564E-2</c:v>
+                  <c:v>4.449116904962154E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.449116904962154E-2</c:v>
+                  <c:v>4.5859872611464986E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.5859872611464986E-2</c:v>
+                  <c:v>4.716981132075472E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.716981132075472E-2</c:v>
+                  <c:v>4.8424068767908335E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.8424068767908335E-2</c:v>
+                  <c:v>4.9625595643294787E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.9625595643294787E-2</c:v>
+                  <c:v>5.0777202072538878E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.0777202072538878E-2</c:v>
+                  <c:v>5.1881554595928442E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.1881554595928442E-2</c:v>
+                  <c:v>5.2941176470588255E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2941176470588255E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>5.3958450308815284E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1938,11 +2141,22 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.12'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λс(t) Общ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2058,107 +2272,104 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.12'!$A$16:$AG$16</c:f>
+              <c:f>'2.12'!$B$16:$AG$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0" formatCode="General">
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.6923076923076936E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6923076923076936E-3</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>3.1034482758620703E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1034482758620703E-2</c:v>
+                  <c:v>4.0000000000000015E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0000000000000015E-2</c:v>
+                  <c:v>4.716981132075472E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.716981132075472E-2</c:v>
+                  <c:v>5.2941176470588262E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2941176470588262E-2</c:v>
+                  <c:v>5.7647058823529412E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7647058823529412E-2</c:v>
+                  <c:v>6.1538461538461556E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1538461538461556E-2</c:v>
+                  <c:v>6.4799999999999983E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.4799999999999983E-2</c:v>
+                  <c:v>6.7567567567567571E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7567567567567571E-2</c:v>
+                  <c:v>6.9942196531791873E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9942196531791873E-2</c:v>
+                  <c:v>7.1999999999999981E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1999999999999981E-2</c:v>
+                  <c:v>7.379912663755471E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.379912663755471E-2</c:v>
+                  <c:v>7.5384615384615314E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5384615384615314E-2</c:v>
+                  <c:v>7.6791808873720238E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6791808873720238E-2</c:v>
+                  <c:v>7.8048780487804476E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8048780487804476E-2</c:v>
+                  <c:v>7.9178082191781116E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9178082191781116E-2</c:v>
+                  <c:v>8.0198019801980547E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0198019801980547E-2</c:v>
+                  <c:v>8.1123595505618221E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.1123595505618221E-2</c:v>
+                  <c:v>8.1967213114753384E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.1967213114753384E-2</c:v>
+                  <c:v>8.273921200750553E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.273921200750553E-2</c:v>
+                  <c:v>8.3448275862065616E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3448275862065616E-2</c:v>
+                  <c:v>8.4101748807635615E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.4101748807635615E-2</c:v>
+                  <c:v>8.470588235293755E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.470588235293755E-2</c:v>
+                  <c:v>8.5266030013639263E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.5266030013639263E-2</c:v>
+                  <c:v>8.5786802030450249E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.5786802030450249E-2</c:v>
+                  <c:v>8.6272189349107867E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6272189349107867E-2</c:v>
+                  <c:v>8.6725663716774135E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.6725663716774135E-2</c:v>
+                  <c:v>8.7150259067346095E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.7150259067346095E-2</c:v>
+                  <c:v>8.7548638132373471E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.7548638132373471E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>8.792314730109313E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -11989,8 +12200,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="2663825"/>
-          <a:ext cx="1673225" cy="914400"/>
+          <a:off x="200025" y="2609850"/>
+          <a:ext cx="1466850" cy="914400"/>
           <a:chOff x="1635" y="7689"/>
           <a:chExt cx="1935" cy="1440"/>
         </a:xfrm>
@@ -12596,8 +12807,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4356100" y="2701925"/>
-          <a:ext cx="1355725" cy="1152525"/>
+          <a:off x="3819525" y="2647950"/>
+          <a:ext cx="1190625" cy="1152525"/>
           <a:chOff x="3998" y="10358"/>
           <a:chExt cx="1935" cy="1825"/>
         </a:xfrm>
@@ -13528,8 +13739,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8083550" y="2606675"/>
-          <a:ext cx="1355725" cy="1447800"/>
+          <a:off x="7134225" y="2552700"/>
+          <a:ext cx="1190625" cy="1447800"/>
           <a:chOff x="2120" y="12398"/>
           <a:chExt cx="1935" cy="2291"/>
         </a:xfrm>
@@ -15891,8 +16102,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3873500" y="9486900"/>
-          <a:ext cx="1355725" cy="704850"/>
+          <a:off x="3419475" y="9420225"/>
+          <a:ext cx="1190625" cy="704850"/>
           <a:chOff x="1860" y="3135"/>
           <a:chExt cx="1935" cy="1440"/>
         </a:xfrm>
@@ -16475,15 +16686,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16529,15 +16740,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>292100</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>406400</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16583,15 +16794,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>596900</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>368300</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16637,15 +16848,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16691,7 +16902,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>241300</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -16699,7 +16910,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16745,15 +16956,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>596900</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17346,27 +17557,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="60"/>
     </row>
-    <row r="3" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -17380,7 +17591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -17391,7 +17602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17399,8 +17610,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -17412,7 +17623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -17424,7 +17635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -17442,7 +17653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -17451,12 +17662,12 @@
         <v>1142.8571428571429</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -17472,7 +17683,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -17480,11 +17691,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
     </row>
-    <row r="27" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:22" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>1</v>
       </c>
@@ -17509,7 +17720,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:22" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -17597,7 +17808,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -17686,7 +17897,7 @@
         <v>3.3546262790251635E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -17775,7 +17986,7 @@
         <v>3.0191636511226472E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -17864,7 +18075,7 @@
         <v>1.375396774400317E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -17953,7 +18164,7 @@
         <v>4.2380111991684566E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -18042,7 +18253,7 @@
         <v>3.3546262790251187E-7</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -18131,7 +18342,7 @@
         <v>2.6837010232200952E-9</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -18149,7 +18360,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>39</v>
       </c>
@@ -18158,7 +18369,7 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -18247,14 +18458,14 @@
         <v>6.7081272063029829E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>29</v>
       </c>
@@ -18265,7 +18476,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -18359,7 +18570,7 @@
       <c r="X58" s="15"/>
       <c r="Y58" s="15"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -18448,7 +18659,7 @@
         <v>3.3546262790251177E-7</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -18533,7 +18744,7 @@
         <v>9.9999999999998636E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1</v>
       </c>
@@ -18614,7 +18825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B62">
         <f>B61*B58</f>
         <v>1</v>
@@ -18708,7 +18919,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>43</v>
       </c>
@@ -18723,7 +18934,7 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -18812,7 +19023,7 @@
         <v>3.0191636511225362E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -18901,7 +19112,7 @@
         <v>2.683701023220095E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -18990,7 +19201,7 @@
         <v>8.8888888888890975E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1</v>
       </c>
@@ -19071,7 +19282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B68">
         <f>B67*B64</f>
         <v>1</v>
@@ -19165,7 +19376,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>41</v>
       </c>
@@ -19179,7 +19390,7 @@
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -19268,7 +19479,7 @@
         <v>1.3753967744003059E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -19357,7 +19568,7 @@
         <v>1.073480409288038E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -19446,7 +19657,7 @@
         <v>7.804878048780447E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1</v>
       </c>
@@ -19527,7 +19738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B74">
         <f>B70*B73</f>
         <v>1</v>
@@ -19617,7 +19828,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>42</v>
       </c>
@@ -19631,7 +19842,7 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -19720,7 +19931,7 @@
         <v>4.2380111991684011E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -19809,7 +20020,7 @@
         <v>2.8626144247681013E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -19898,7 +20109,7 @@
         <v>6.754617414248019E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1</v>
       </c>
@@ -19979,7 +20190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" ref="B80:U80" si="27">B79*B76</f>
         <v>1</v>
@@ -20069,7 +20280,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>11</v>
       </c>
@@ -20090,15 +20301,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>127000</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>88900</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20115,15 +20326,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>292100</xdr:colOff>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>406400</xdr:colOff>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20140,15 +20351,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>596900</xdr:colOff>
+                <xdr:colOff>600075</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>368300</xdr:colOff>
+                <xdr:colOff>371475</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20165,15 +20376,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>101600</xdr:colOff>
+                <xdr:colOff>104775</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>139700</xdr:colOff>
+                <xdr:colOff>142875</xdr:colOff>
                 <xdr:row>25</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20190,7 +20401,7 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>241300</xdr:colOff>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -20198,7 +20409,7 @@
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>25</xdr:row>
-                <xdr:rowOff>139700</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20215,15 +20426,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>596900</xdr:colOff>
+                <xdr:colOff>600075</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>25400</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>25</xdr:row>
-                <xdr:rowOff>139700</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20241,310 +20452,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="43">
         <v>50</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="44">
         <f>PI()/(4*B2^2)</f>
         <v>3.1415926535897931E-4</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
+    <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="44">
+      <c r="B6" s="45">
         <f>SQRT(1/B3)</f>
         <v>56.418958354775633</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+    <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="46">
         <v>0</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="47">
         <v>5</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="47">
         <v>10</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="47">
         <v>15</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="47">
         <v>20</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="47">
         <v>25</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="47">
         <v>30</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="47">
         <v>35</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="47">
         <v>40</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="47">
         <v>45</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="47">
         <v>50</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="47">
         <v>55</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="47">
         <v>60</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="47">
         <v>65</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="47">
         <v>70</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="47">
         <v>75</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="47">
         <v>80</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="47">
         <v>85</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="47">
         <v>90</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="47">
         <v>95</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="47">
         <v>100</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="47">
         <v>105</v>
       </c>
-      <c r="X8" s="20">
+      <c r="X8" s="47">
         <v>110</v>
       </c>
-      <c r="Y8" s="20">
+      <c r="Y8" s="47">
         <v>115</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="Z8" s="47">
         <v>120</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA8" s="47">
         <v>125</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="47">
         <v>130</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AC8" s="47">
         <v>135</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AD8" s="47">
         <v>140</v>
       </c>
-      <c r="AE8" s="20">
+      <c r="AE8" s="47">
         <v>145</v>
       </c>
-      <c r="AF8" s="20">
+      <c r="AF8" s="47">
         <v>150</v>
       </c>
-      <c r="AG8" s="20">
+      <c r="AG8" s="47">
         <v>155</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="AH8" s="48">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="26">
         <f>1-WEIBULL(B8,$B$5,$B$6,1)</f>
         <v>1</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <f t="shared" ref="C9:L9" si="0">1-WEIBULL(C8,$B$5,$B$6,1)</f>
         <v>0.99217678029256151</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>0.96907242630481061</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <f t="shared" si="0"/>
         <v>0.93175457109937643</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>0.88191137829817634</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="20">
         <f t="shared" si="0"/>
         <v>0.82172495803387724</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="20">
         <f t="shared" si="0"/>
         <v>0.75371321195646723</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="20">
         <f t="shared" si="0"/>
         <v>0.68055604612786125</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="20">
         <f t="shared" si="0"/>
         <v>0.60492256276427103</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="20">
         <f t="shared" si="0"/>
         <v>0.52931449654319562</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <f t="shared" si="0"/>
         <v>0.45593812776599629</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <f t="shared" ref="M9" si="1">1-WEIBULL(M8,$B$5,$B$6,1)</f>
         <v>0.38661273268620922</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="20">
         <f t="shared" ref="N9" si="2">1-WEIBULL(N8,$B$5,$B$6,1)</f>
         <v>0.32271898326704906</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="20">
         <f t="shared" ref="O9" si="3">1-WEIBULL(O8,$B$5,$B$6,1)</f>
         <v>0.26518624298185145</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="20">
         <f t="shared" ref="P9" si="4">1-WEIBULL(P8,$B$5,$B$6,1)</f>
         <v>0.21451397306126208</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="20">
         <f t="shared" ref="Q9" si="5">1-WEIBULL(Q8,$B$5,$B$6,1)</f>
         <v>0.17081983615292995</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="20">
         <f t="shared" ref="R9" si="6">1-WEIBULL(R8,$B$5,$B$6,1)</f>
         <v>0.13390572139976298</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="20">
         <f t="shared" ref="S9" si="7">1-WEIBULL(S8,$B$5,$B$6,1)</f>
         <v>0.10333277305660327</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="20">
         <f t="shared" ref="T9" si="8">1-WEIBULL(T8,$B$5,$B$6,1)</f>
         <v>7.8497378519477023E-2</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="20">
         <f t="shared" ref="U9" si="9">1-WEIBULL(U8,$B$5,$B$6,1)</f>
         <v>5.8701654323340735E-2</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V9" s="20">
         <f t="shared" ref="V9" si="10">1-WEIBULL(V8,$B$5,$B$6,1)</f>
         <v>4.32139182637723E-2</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W9" s="20">
         <f t="shared" ref="W9" si="11">1-WEIBULL(W8,$B$5,$B$6,1)</f>
         <v>3.1316633508848946E-2</v>
       </c>
-      <c r="X9" s="23">
+      <c r="X9" s="20">
         <f t="shared" ref="X9" si="12">1-WEIBULL(X8,$B$5,$B$6,1)</f>
         <v>2.2341103053503786E-2</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Y9" s="20">
         <f t="shared" ref="Y9" si="13">1-WEIBULL(Y8,$B$5,$B$6,1)</f>
         <v>1.568961446793371E-2</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9" s="20">
         <f t="shared" ref="Z9" si="14">1-WEIBULL(Z8,$B$5,$B$6,1)</f>
         <v>1.084671053816022E-2</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AA9" s="20">
         <f t="shared" ref="AA9" si="15">1-WEIBULL(AA8,$B$5,$B$6,1)</f>
         <v>7.3817944373436584E-3</v>
       </c>
-      <c r="AB9" s="23">
+      <c r="AB9" s="20">
         <f t="shared" ref="AB9" si="16">1-WEIBULL(AB8,$B$5,$B$6,1)</f>
         <v>4.9454288951884529E-3</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9" s="20">
         <f t="shared" ref="AC9" si="17">1-WEIBULL(AC8,$B$5,$B$6,1)</f>
         <v>3.2615504087009084E-3</v>
       </c>
-      <c r="AD9" s="23">
+      <c r="AD9" s="20">
         <f t="shared" ref="AD9" si="18">1-WEIBULL(AD8,$B$5,$B$6,1)</f>
         <v>2.1174947706328329E-3</v>
       </c>
-      <c r="AE9" s="23">
+      <c r="AE9" s="20">
         <f t="shared" ref="AE9" si="19">1-WEIBULL(AE8,$B$5,$B$6,1)</f>
         <v>1.3533144407479325E-3</v>
       </c>
-      <c r="AF9" s="23">
+      <c r="AF9" s="20">
         <f t="shared" ref="AF9" si="20">1-WEIBULL(AF8,$B$5,$B$6,1)</f>
         <v>8.514383428052108E-4</v>
       </c>
-      <c r="AG9" s="23">
+      <c r="AG9" s="20">
         <f t="shared" ref="AG9" si="21">1-WEIBULL(AG8,$B$5,$B$6,1)</f>
         <v>5.2733404420834962E-4</v>
       </c>
@@ -20553,135 +20762,135 @@
         <v>3.2151151668891043E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="26">
         <f>WEIBULL(B8,$B$5,$B$6,0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <f t="shared" ref="C10:L10" si="23">WEIBULL(C8,$B$5,$B$6,0)</f>
         <v>3.1170152840294843E-3</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <f t="shared" si="23"/>
         <v>6.0888616305512589E-3</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <f t="shared" si="23"/>
         <v>8.781579946543527E-3</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <f t="shared" si="23"/>
         <v>1.1082425228715194E-2</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
         <f t="shared" si="23"/>
         <v>1.2907625457153044E-2</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="20">
         <f t="shared" si="23"/>
         <v>1.4207159337576023E-2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="20">
         <f t="shared" si="23"/>
         <v>1.4966209124099832E-2</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="20">
         <f t="shared" si="23"/>
         <v>1.5203362233367552E-2</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <f t="shared" si="23"/>
         <v>1.4966014804008144E-2</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <f t="shared" si="23"/>
         <v>1.4323718726811379E-2</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <f t="shared" ref="M10:X10" si="24">WEIBULL(M8,$B$5,$B$6,0)</f>
         <v>1.3360376928703961E-2</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="20">
         <f t="shared" si="24"/>
         <v>1.2166219044068741E-2</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="20">
         <f t="shared" si="24"/>
         <v>1.0830392986203207E-2</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="20">
         <f t="shared" si="24"/>
         <v>9.4348173060626785E-3</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="20">
         <f t="shared" si="24"/>
         <v>8.0496951351818509E-3</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="20">
         <f t="shared" si="24"/>
         <v>6.7308356899701887E-3</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="20">
         <f t="shared" si="24"/>
         <v>5.5187011720646655E-3</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="20">
         <f t="shared" si="24"/>
         <v>4.4389221782912295E-3</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="20">
         <f t="shared" si="24"/>
         <v>3.5039170335397231E-3</v>
       </c>
-      <c r="V10" s="23">
+      <c r="V10" s="20">
         <f t="shared" si="24"/>
         <v>2.7152105630059362E-3</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="20">
         <f t="shared" si="24"/>
         <v>2.0660662210978363E-3</v>
       </c>
-      <c r="X10" s="23">
+      <c r="X10" s="20">
         <f t="shared" si="24"/>
         <v>1.5441061949715605E-3</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Y10" s="20">
         <f t="shared" ref="Y10:AH10" si="25">WEIBULL(Y8,$B$5,$B$6,0)</f>
         <v>1.1336786836526874E-3</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10" s="20">
         <f t="shared" si="25"/>
         <v>8.1782270741517619E-4</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="AA10" s="20">
         <f t="shared" si="25"/>
         <v>5.7976477936672413E-4</v>
       </c>
-      <c r="AB10" s="23">
+      <c r="AB10" s="20">
         <f t="shared" si="25"/>
         <v>4.0394960023534262E-4</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AC10" s="20">
         <f t="shared" si="25"/>
         <v>2.7665449568875988E-4</v>
       </c>
-      <c r="AD10" s="23">
+      <c r="AD10" s="20">
         <f t="shared" si="25"/>
         <v>1.862645684321785E-4</v>
       </c>
-      <c r="AE10" s="23">
+      <c r="AE10" s="20">
         <f t="shared" si="25"/>
         <v>1.2329531844646743E-4</v>
       </c>
-      <c r="AF10" s="23">
+      <c r="AF10" s="20">
         <f t="shared" si="25"/>
         <v>8.0246173282240557E-5</v>
       </c>
-      <c r="AG10" s="23">
+      <c r="AG10" s="20">
         <f t="shared" si="25"/>
         <v>5.1356731537451289E-5</v>
       </c>
@@ -20690,11 +20899,11 @@
         <v>3.2321863003976235E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="27">
         <f>B10/B9</f>
         <v>0</v>
       </c>
@@ -20822,249 +21031,250 @@
         <f t="shared" ref="AG11" si="32">AG10/AG9</f>
         <v>9.7389372261276294E-2</v>
       </c>
-      <c r="AH11" s="24">
+      <c r="AH11" s="25">
         <f>AH10/AH9</f>
         <v>0.10053096491485987</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>53</v>
+    <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="46">
         <v>0</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="47">
         <v>5</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="47">
         <v>10</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="47">
         <v>15</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="47">
         <v>20</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="47">
         <v>25</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="47">
         <v>30</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="47">
         <v>35</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="47">
         <v>40</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="47">
         <v>45</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="47">
         <v>50</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="47">
         <v>55</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="47">
         <v>60</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="47">
         <v>65</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="47">
         <v>70</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="47">
         <v>75</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="47">
         <v>80</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="47">
         <v>85</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="47">
         <v>90</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="47">
         <v>95</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="47">
         <v>100</v>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="47">
         <v>105</v>
       </c>
-      <c r="X14" s="20">
+      <c r="X14" s="47">
         <v>110</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="Y14" s="47">
         <v>115</v>
       </c>
-      <c r="Z14" s="20">
+      <c r="Z14" s="47">
         <v>120</v>
       </c>
-      <c r="AA14" s="20">
+      <c r="AA14" s="47">
         <v>125</v>
       </c>
-      <c r="AB14" s="20">
+      <c r="AB14" s="47">
         <v>130</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AC14" s="47">
         <v>135</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AD14" s="47">
         <v>140</v>
       </c>
-      <c r="AE14" s="20">
+      <c r="AE14" s="47">
         <v>145</v>
       </c>
-      <c r="AF14" s="20">
+      <c r="AF14" s="47">
         <v>150</v>
       </c>
-      <c r="AG14" s="20">
+      <c r="AG14" s="47">
         <v>155</v>
       </c>
-      <c r="AH14" s="20">
+      <c r="AH14" s="48">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="23">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="26">
         <f t="shared" ref="B15:AB15" si="33">POWER(B9,5)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <f t="shared" si="33"/>
         <v>0.96149115980140776</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="20">
         <f t="shared" si="33"/>
         <v>0.85463599915323329</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="20">
         <f t="shared" si="33"/>
         <v>0.7022757305384314</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="20">
         <f t="shared" si="33"/>
         <v>0.5334880910911034</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="20">
         <f t="shared" si="33"/>
         <v>0.37465573890455789</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="20">
         <f t="shared" si="33"/>
         <v>0.24323756143753308</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="20">
         <f t="shared" si="33"/>
         <v>0.14598878134575105</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="20">
         <f t="shared" si="33"/>
         <v>8.1002592157943198E-2</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="20">
         <f t="shared" si="33"/>
         <v>4.1549800390997628E-2</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="20">
         <f t="shared" si="33"/>
         <v>1.9702872986617121E-2</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <f t="shared" si="33"/>
         <v>8.6373549027393207E-3</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="20">
         <f t="shared" si="33"/>
         <v>3.500439396667037E-3</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="20">
         <f t="shared" si="33"/>
         <v>1.3114597086489141E-3</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="20">
         <f t="shared" si="33"/>
         <v>4.5423221618489751E-4</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="20">
         <f t="shared" si="33"/>
         <v>1.4544255821229913E-4</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="20">
         <f t="shared" si="33"/>
         <v>4.3052231580554673E-5</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="20">
         <f t="shared" si="33"/>
         <v>1.1781224225278781E-5</v>
       </c>
-      <c r="T15" s="23">
+      <c r="T15" s="20">
         <f t="shared" si="33"/>
         <v>2.9804083189880756E-6</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="20">
         <f t="shared" si="33"/>
         <v>6.9703037373456425E-7</v>
       </c>
-      <c r="V15" s="23">
+      <c r="V15" s="20">
         <f t="shared" si="33"/>
         <v>1.5070172753900736E-7</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="20">
         <f t="shared" si="33"/>
         <v>3.0121413597932507E-8</v>
       </c>
-      <c r="X15" s="23">
+      <c r="X15" s="20">
         <f t="shared" si="33"/>
         <v>5.5657418528163014E-9</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="Y15" s="20">
         <f t="shared" si="33"/>
         <v>9.5073911136757267E-10</v>
       </c>
-      <c r="Z15" s="23">
+      <c r="Z15" s="20">
         <f t="shared" si="33"/>
         <v>1.5013787072019117E-10</v>
       </c>
-      <c r="AA15" s="23">
+      <c r="AA15" s="20">
         <f t="shared" si="33"/>
         <v>2.1918444780285628E-11</v>
       </c>
-      <c r="AB15" s="23">
+      <c r="AB15" s="20">
         <f t="shared" si="33"/>
         <v>2.958147397281008E-12</v>
       </c>
-      <c r="AC15" s="23">
+      <c r="AC15" s="20">
         <f t="shared" ref="AC15:AH15" si="34">POWER(AC9,5)</f>
         <v>3.6907996913141459E-13</v>
       </c>
-      <c r="AD15" s="23">
+      <c r="AD15" s="20">
         <f t="shared" si="34"/>
         <v>4.2570792230415881E-14</v>
       </c>
-      <c r="AE15" s="23">
+      <c r="AE15" s="20">
         <f t="shared" si="34"/>
         <v>4.539349065125735E-15</v>
       </c>
-      <c r="AF15" s="23">
+      <c r="AF15" s="20">
         <f t="shared" si="34"/>
         <v>4.4747215888973907E-16</v>
       </c>
-      <c r="AG15" s="23">
+      <c r="AG15" s="20">
         <f t="shared" si="34"/>
         <v>4.0778293698527442E-17</v>
       </c>
@@ -21073,135 +21283,135 @@
         <v>3.4354423955825887E-18</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="23">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="26">
         <f>B15*B17</f>
         <v>0</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <f t="shared" ref="C16:AB16" si="35">C15*C17</f>
         <v>1.5103067820618156E-2</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="20">
         <f t="shared" si="35"/>
         <v>2.6849181764331705E-2</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="20">
         <f t="shared" si="35"/>
         <v>3.3093964137809108E-2</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="20">
         <f t="shared" si="35"/>
         <v>3.3520045354989043E-2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="20">
         <f t="shared" si="35"/>
         <v>2.9425392924195357E-2</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="20">
         <f t="shared" si="35"/>
         <v>2.2924600082677493E-2</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="20">
         <f t="shared" si="35"/>
         <v>1.605230490438183E-2</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="20">
         <f t="shared" si="35"/>
         <v>1.017908593780498E-2</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="20">
         <f t="shared" si="35"/>
         <v>5.8739646449916189E-3</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="20">
         <f t="shared" si="35"/>
         <v>3.0949200514684555E-3</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="20">
         <f t="shared" si="35"/>
         <v>1.4924277889891496E-3</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="20">
         <f t="shared" si="35"/>
         <v>6.5981728157432683E-4</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="20">
         <f t="shared" si="35"/>
         <v>2.6780469210107845E-4</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="20">
         <f t="shared" si="35"/>
         <v>9.9890881537319955E-5</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="20">
         <f t="shared" si="35"/>
         <v>3.4269095429929848E-5</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="20">
         <f t="shared" si="35"/>
         <v>1.082020595632936E-5</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="20">
         <f t="shared" si="35"/>
         <v>3.1460036354965436E-6</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16" s="20">
         <f t="shared" si="35"/>
         <v>8.4269059916677527E-7</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="20">
         <f t="shared" si="35"/>
         <v>2.0802962263807836E-7</v>
       </c>
-      <c r="V16" s="23">
+      <c r="V16" s="20">
         <f t="shared" si="35"/>
         <v>4.7344344011983598E-8</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="20">
         <f t="shared" si="35"/>
         <v>9.9360672258754523E-9</v>
       </c>
-      <c r="X16" s="23">
+      <c r="X16" s="20">
         <f t="shared" si="35"/>
         <v>1.9233823088243437E-9</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Y16" s="20">
         <f t="shared" si="35"/>
         <v>3.4348602589157941E-10</v>
       </c>
-      <c r="Z16" s="23">
+      <c r="Z16" s="20">
         <f t="shared" si="35"/>
         <v>5.6600643801619782E-11</v>
       </c>
-      <c r="AA16" s="23">
+      <c r="AA16" s="20">
         <f t="shared" si="35"/>
         <v>8.6073531374824069E-12</v>
       </c>
-      <c r="AB16" s="23">
+      <c r="AB16" s="20">
         <f t="shared" si="35"/>
         <v>1.2081282370993905E-12</v>
       </c>
-      <c r="AC16" s="23">
+      <c r="AC16" s="20">
         <f t="shared" ref="AC16" si="36">AC15*AC17</f>
         <v>1.5653235414740156E-13</v>
       </c>
-      <c r="AD16" s="23">
+      <c r="AD16" s="20">
         <f t="shared" ref="AD16" si="37">AD15*AD17</f>
         <v>1.8723612338000172E-14</v>
       </c>
-      <c r="AE16" s="23">
+      <c r="AE16" s="20">
         <f t="shared" ref="AE16" si="38">AE15*AE17</f>
         <v>2.0678139228863719E-15</v>
       </c>
-      <c r="AF16" s="23">
+      <c r="AF16" s="20">
         <f t="shared" ref="AF16" si="39">AF15*AF17</f>
         <v>2.1086628705808223E-16</v>
       </c>
-      <c r="AG16" s="23">
+      <c r="AG16" s="20">
         <f t="shared" ref="AG16" si="40">AG15*AG17</f>
         <v>1.9856862125927732E-17</v>
       </c>
@@ -21210,376 +21420,377 @@
         <v>1.7268416946866768E-18</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="23">
+        <v>51</v>
+      </c>
+      <c r="B17" s="30">
         <f t="shared" ref="B17:AB17" si="42">5*B11</f>
         <v>0</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="28">
         <f t="shared" si="42"/>
         <v>1.570796326794896E-2</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="28">
         <f t="shared" si="42"/>
         <v>3.1415926535897934E-2</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="28">
         <f t="shared" si="42"/>
         <v>4.7123889803846887E-2</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="28">
         <f t="shared" si="42"/>
         <v>6.283185307179584E-2</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="28">
         <f t="shared" si="42"/>
         <v>7.85398163397448E-2</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="28">
         <f t="shared" si="42"/>
         <v>9.4247779607693774E-2</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="28">
         <f t="shared" si="42"/>
         <v>0.10995574287564272</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="28">
         <f t="shared" si="42"/>
         <v>0.12566370614359171</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="28">
         <f t="shared" si="42"/>
         <v>0.14137166941154064</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="28">
         <f t="shared" si="42"/>
         <v>0.1570796326794896</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="28">
         <f t="shared" si="42"/>
         <v>0.17278759594743859</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="28">
         <f t="shared" si="42"/>
         <v>0.18849555921538752</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="28">
         <f t="shared" si="42"/>
         <v>0.20420352248333648</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="28">
         <f t="shared" si="42"/>
         <v>0.21991148575128558</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="28">
         <f t="shared" si="42"/>
         <v>0.23561944901923443</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="28">
         <f t="shared" si="42"/>
         <v>0.25132741228718336</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="28">
         <f t="shared" si="42"/>
         <v>0.26703537555513246</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="28">
         <f t="shared" si="42"/>
         <v>0.28274333882308117</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="28">
         <f t="shared" si="42"/>
         <v>0.29845130209103055</v>
       </c>
-      <c r="V17" s="23">
+      <c r="V17" s="28">
         <f t="shared" si="42"/>
         <v>0.3141592653589792</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17" s="28">
         <f t="shared" si="42"/>
         <v>0.32986722862692774</v>
       </c>
-      <c r="X17" s="23">
+      <c r="X17" s="28">
         <f t="shared" si="42"/>
         <v>0.3455751918948774</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Y17" s="28">
         <f t="shared" si="42"/>
         <v>0.36128315516282739</v>
       </c>
-      <c r="Z17" s="23">
+      <c r="Z17" s="28">
         <f t="shared" si="42"/>
         <v>0.37699111843077371</v>
       </c>
-      <c r="AA17" s="23">
+      <c r="AA17" s="28">
         <f t="shared" si="42"/>
         <v>0.3926990816987263</v>
       </c>
-      <c r="AB17" s="23">
+      <c r="AB17" s="28">
         <f t="shared" si="42"/>
         <v>0.40840704496667274</v>
       </c>
-      <c r="AC17" s="23">
+      <c r="AC17" s="28">
         <f t="shared" ref="AC17:AH17" si="43">5*AC11</f>
         <v>0.42411500823461556</v>
       </c>
-      <c r="AD17" s="23">
+      <c r="AD17" s="28">
         <f t="shared" si="43"/>
         <v>0.43982297150257332</v>
       </c>
-      <c r="AE17" s="23">
+      <c r="AE17" s="28">
         <f t="shared" si="43"/>
         <v>0.4555309347705111</v>
       </c>
-      <c r="AF17" s="23">
+      <c r="AF17" s="28">
         <f t="shared" si="43"/>
         <v>0.47123889803843966</v>
       </c>
-      <c r="AG17" s="23">
+      <c r="AG17" s="28">
         <f t="shared" si="43"/>
         <v>0.48694686130638148</v>
       </c>
-      <c r="AH17" s="23">
+      <c r="AH17" s="29">
         <f t="shared" si="43"/>
         <v>0.50265482457429933</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+    <row r="18" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="46">
         <v>0</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="47">
         <v>5</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="47">
         <v>10</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="47">
         <v>15</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="47">
         <v>20</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="47">
         <v>25</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="47">
         <v>30</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="47">
         <v>35</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="47">
         <v>40</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="47">
         <v>45</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="47">
         <v>50</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="47">
         <v>55</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="47">
         <v>60</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="47">
         <v>65</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="47">
         <v>70</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="47">
         <v>75</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="47">
         <v>80</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="47">
         <v>85</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="47">
         <v>90</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="47">
         <v>95</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="47">
         <v>100</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="47">
         <v>105</v>
       </c>
-      <c r="X19" s="20">
+      <c r="X19" s="47">
         <v>110</v>
       </c>
-      <c r="Y19" s="20">
+      <c r="Y19" s="47">
         <v>115</v>
       </c>
-      <c r="Z19" s="20">
+      <c r="Z19" s="47">
         <v>120</v>
       </c>
-      <c r="AA19" s="20">
+      <c r="AA19" s="47">
         <v>125</v>
       </c>
-      <c r="AB19" s="20">
+      <c r="AB19" s="47">
         <v>130</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AC19" s="47">
         <v>135</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AD19" s="47">
         <v>140</v>
       </c>
-      <c r="AE19" s="20">
+      <c r="AE19" s="47">
         <v>145</v>
       </c>
-      <c r="AF19" s="20">
+      <c r="AF19" s="47">
         <v>150</v>
       </c>
-      <c r="AG19" s="20">
+      <c r="AG19" s="47">
         <v>155</v>
       </c>
-      <c r="AH19" s="20">
+      <c r="AH19" s="48">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="23">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="26">
         <f>1-POWER((1-POWER(B9,5)),3)</f>
         <v>1</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <f t="shared" ref="C20:AB20" si="44">1-POWER((1-POWER(C9,5)),3)</f>
         <v>0.99994289405582004</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="20">
         <f t="shared" si="44"/>
         <v>0.99692835796233314</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="20">
         <f t="shared" si="44"/>
         <v>0.97360979797673475</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="20">
         <f t="shared" si="44"/>
         <v>0.89847144524587086</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="20">
         <f t="shared" si="44"/>
         <v>0.75545572177103759</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="20">
         <f t="shared" si="44"/>
         <v>0.56661018188118106</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="20">
         <f t="shared" si="44"/>
         <v>0.37713958984542306</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="20">
         <f t="shared" si="44"/>
         <v>0.2238550086879888</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="20">
         <f t="shared" si="44"/>
         <v>0.11954197442546122</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="20">
         <f t="shared" si="44"/>
         <v>5.7951658066491052E-2</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="20">
         <f t="shared" si="44"/>
         <v>2.5688897389429255E-2</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="20">
         <f t="shared" si="44"/>
         <v>1.0464601853241606E-2</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="20">
         <f t="shared" si="44"/>
         <v>3.9292216018588233E-3</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="20">
         <f t="shared" si="44"/>
         <v>1.3620777615563906E-3</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="20">
         <f t="shared" si="44"/>
         <v>4.362642171001907E-4</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="20">
         <f t="shared" si="44"/>
         <v>1.2915113433742409E-4</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="20">
         <f t="shared" si="44"/>
         <v>3.5343256285846891E-5</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="20">
         <f t="shared" si="44"/>
         <v>8.9411983086318259E-6</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="20">
         <f t="shared" si="44"/>
         <v>2.091089663758261E-6</v>
       </c>
-      <c r="V20" s="23">
+      <c r="V20" s="20">
         <f t="shared" si="44"/>
         <v>4.5210511445681334E-7</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="20">
         <f t="shared" si="44"/>
         <v>9.036423809227756E-8</v>
       </c>
-      <c r="X20" s="23">
+      <c r="X20" s="20">
         <f t="shared" si="44"/>
         <v>1.6697225491135725E-8</v>
       </c>
-      <c r="Y20" s="23">
+      <c r="Y20" s="20">
         <f t="shared" si="44"/>
         <v>2.8522174622125362E-9</v>
       </c>
-      <c r="Z20" s="23">
+      <c r="Z20" s="20">
         <f t="shared" si="44"/>
         <v>4.5041370633214228E-10</v>
       </c>
-      <c r="AA20" s="23">
+      <c r="AA20" s="20">
         <f t="shared" si="44"/>
         <v>6.5755401124079071E-11</v>
       </c>
-      <c r="AB20" s="23">
+      <c r="AB20" s="20">
         <f t="shared" si="44"/>
         <v>8.8745677473411888E-12</v>
       </c>
-      <c r="AC20" s="23">
+      <c r="AC20" s="20">
         <f t="shared" ref="AC20:AH20" si="45">1-POWER((1-POWER(AC9,5)),3)</f>
         <v>1.1071144001562061E-12</v>
       </c>
-      <c r="AD20" s="23">
+      <c r="AD20" s="20">
         <f t="shared" si="45"/>
         <v>1.2756462552943049E-13</v>
       </c>
-      <c r="AE20" s="23">
+      <c r="AE20" s="20">
         <f t="shared" si="45"/>
         <v>1.3655743202889425E-14</v>
       </c>
-      <c r="AF20" s="23">
+      <c r="AF20" s="20">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="23">
+      <c r="AG20" s="20">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -21588,135 +21799,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="23">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="26">
         <f>3*B16*POWER((1-B15),2)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <f t="shared" ref="C21:AB21" si="46">3*C16*POWER((1-C15),2)</f>
         <v>6.7190412133670519E-5</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <f t="shared" si="46"/>
         <v>1.7020254307230091E-3</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="20">
         <f t="shared" si="46"/>
         <v>8.8003211924268018E-3</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="20">
         <f t="shared" si="46"/>
         <v>2.1885240409904538E-2</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="20">
         <f t="shared" si="46"/>
         <v>3.4520880362661828E-2</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="20">
         <f t="shared" si="46"/>
         <v>3.938602560329698E-2</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="20">
         <f t="shared" si="46"/>
         <v>3.5122531173858537E-2</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="20">
         <f t="shared" si="46"/>
         <v>2.5790431505067976E-2</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="20">
         <f t="shared" si="46"/>
         <v>1.6187943773397252E-2</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="20">
         <f t="shared" si="46"/>
         <v>8.9224916279780925E-3</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <f t="shared" si="46"/>
         <v>4.400273618885499E-3</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="20">
         <f t="shared" si="46"/>
         <v>1.9656181966546653E-3</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="20">
         <f t="shared" si="46"/>
         <v>8.013081677355837E-4</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="20">
         <f t="shared" si="46"/>
         <v>2.9940046450350533E-4</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="20">
         <f t="shared" si="46"/>
         <v>1.0277738335508565E-4</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="20">
         <f t="shared" si="46"/>
         <v>3.2457822925078176E-5</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="20">
         <f t="shared" si="46"/>
         <v>9.4377885251541408E-6</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="20">
         <f t="shared" si="46"/>
         <v>2.5280567281503493E-6</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="20">
         <f t="shared" si="46"/>
         <v>6.2408799789674463E-7</v>
       </c>
-      <c r="V21" s="23">
+      <c r="V21" s="20">
         <f t="shared" si="46"/>
         <v>1.4203298922670744E-7</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="20">
         <f t="shared" si="46"/>
         <v>2.9808199881896041E-8</v>
       </c>
-      <c r="X21" s="23">
+      <c r="X21" s="20">
         <f t="shared" si="46"/>
         <v>5.770146862242734E-9</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y21" s="20">
         <f t="shared" si="46"/>
         <v>1.0304580757153445E-9</v>
       </c>
-      <c r="Z21" s="23">
+      <c r="Z21" s="20">
         <f t="shared" si="46"/>
         <v>1.6980193135387193E-10</v>
       </c>
-      <c r="AA21" s="23">
+      <c r="AA21" s="20">
         <f t="shared" si="46"/>
         <v>2.582205941131526E-11</v>
       </c>
-      <c r="AB21" s="23">
+      <c r="AB21" s="20">
         <f t="shared" si="46"/>
         <v>3.6243847112767282E-12</v>
       </c>
-      <c r="AC21" s="23">
+      <c r="AC21" s="20">
         <f t="shared" ref="AC21:AH21" si="47">3*AC16*POWER((1-AC15),2)</f>
         <v>4.6959706244185801E-13</v>
       </c>
-      <c r="AD21" s="23">
+      <c r="AD21" s="20">
         <f t="shared" si="47"/>
         <v>5.6170837013995739E-14</v>
       </c>
-      <c r="AE21" s="23">
+      <c r="AE21" s="20">
         <f t="shared" si="47"/>
         <v>6.2034417686590589E-15</v>
       </c>
-      <c r="AF21" s="23">
+      <c r="AF21" s="20">
         <f t="shared" si="47"/>
         <v>6.3259886117424615E-16</v>
       </c>
-      <c r="AG21" s="23">
+      <c r="AG21" s="20">
         <f t="shared" si="47"/>
         <v>5.9570586377783195E-17</v>
       </c>
@@ -21725,373 +21936,374 @@
         <v>5.1805250840600301E-18</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="23">
+        <v>59</v>
+      </c>
+      <c r="B22" s="30">
         <f>B21/B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="28">
         <f t="shared" ref="C22:AB22" si="48">C21/C20</f>
         <v>6.719424932472167E-5</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="28">
         <f t="shared" si="48"/>
         <v>1.7072695516474781E-3</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="28">
         <f t="shared" si="48"/>
         <v>9.03885849414705E-3</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="28">
         <f t="shared" si="48"/>
         <v>2.4358303789961337E-2</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="28">
         <f t="shared" si="48"/>
         <v>4.5695438353069176E-2</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="28">
         <f t="shared" si="48"/>
         <v>6.9511679921693117E-2</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="28">
         <f t="shared" si="48"/>
         <v>9.3128730368122026E-2</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="28">
         <f t="shared" si="48"/>
         <v>0.11521042864408239</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="28">
         <f t="shared" si="48"/>
         <v>0.13541639956341048</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="28">
         <f t="shared" si="48"/>
         <v>0.15396438903854723</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="28">
         <f t="shared" si="48"/>
         <v>0.17129087139007262</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="28">
         <f t="shared" si="48"/>
         <v>0.18783497205350227</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="28">
         <f t="shared" si="48"/>
         <v>0.20393560071961925</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="28">
         <f t="shared" si="48"/>
         <v>0.21981157974519214</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="28">
         <f t="shared" si="48"/>
         <v>0.23558517826247072</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="28">
         <f t="shared" si="48"/>
         <v>0.25131659192615302</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="28">
         <f t="shared" si="48"/>
         <v>0.26703222953832573</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T22" s="28">
         <f t="shared" si="48"/>
         <v>0.28274249612714275</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="28">
         <f t="shared" si="48"/>
         <v>0.29845109404590886</v>
       </c>
-      <c r="V22" s="23">
+      <c r="V22" s="28">
         <f t="shared" si="48"/>
         <v>0.31415921803351976</v>
       </c>
-      <c r="W22" s="23">
+      <c r="W22" s="28">
         <f t="shared" si="48"/>
         <v>0.32986721861646973</v>
       </c>
-      <c r="X22" s="23">
+      <c r="X22" s="28">
         <f t="shared" si="48"/>
         <v>0.3455751894412642</v>
       </c>
-      <c r="Y22" s="23">
+      <c r="Y22" s="28">
         <f t="shared" si="48"/>
         <v>0.36128313824850944</v>
       </c>
-      <c r="Z22" s="23">
+      <c r="Z22" s="28">
         <f t="shared" si="48"/>
         <v>0.37699103949704688</v>
       </c>
-      <c r="AA22" s="23">
+      <c r="AA22" s="28">
         <f t="shared" si="48"/>
         <v>0.39269868284416015</v>
       </c>
-      <c r="AB22" s="23">
+      <c r="AB22" s="28">
         <f t="shared" si="48"/>
         <v>0.40840126690819278</v>
       </c>
-      <c r="AC22" s="23">
+      <c r="AC22" s="28">
         <f t="shared" ref="AC22" si="49">AC21/AC20</f>
         <v>0.42416308773113343</v>
       </c>
-      <c r="AD22" s="23">
+      <c r="AD22" s="28">
         <f t="shared" ref="AD22" si="50">AD21/AD20</f>
         <v>0.44033239450882522</v>
       </c>
-      <c r="AE22" s="23">
+      <c r="AE22" s="28">
         <f t="shared" ref="AE22" si="51">AE21/AE20</f>
         <v>0.45427346402841479</v>
       </c>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="29"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+    <row r="23" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="63"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="46">
+        <v>0</v>
+      </c>
+      <c r="C25" s="47">
+        <v>5</v>
+      </c>
+      <c r="D25" s="47">
+        <v>10</v>
+      </c>
+      <c r="E25" s="47">
+        <v>15</v>
+      </c>
+      <c r="F25" s="47">
+        <v>20</v>
+      </c>
+      <c r="G25" s="47">
+        <v>25</v>
+      </c>
+      <c r="H25" s="47">
+        <v>30</v>
+      </c>
+      <c r="I25" s="47">
+        <v>35</v>
+      </c>
+      <c r="J25" s="47">
+        <v>40</v>
+      </c>
+      <c r="K25" s="47">
+        <v>45</v>
+      </c>
+      <c r="L25" s="47">
+        <v>50</v>
+      </c>
+      <c r="M25" s="47">
+        <v>55</v>
+      </c>
+      <c r="N25" s="47">
+        <v>60</v>
+      </c>
+      <c r="O25" s="47">
+        <v>65</v>
+      </c>
+      <c r="P25" s="47">
+        <v>70</v>
+      </c>
+      <c r="Q25" s="47">
+        <v>75</v>
+      </c>
+      <c r="R25" s="47">
+        <v>80</v>
+      </c>
+      <c r="S25" s="47">
+        <v>85</v>
+      </c>
+      <c r="T25" s="47">
+        <v>90</v>
+      </c>
+      <c r="U25" s="47">
+        <v>95</v>
+      </c>
+      <c r="V25" s="47">
+        <v>100</v>
+      </c>
+      <c r="W25" s="47">
+        <v>105</v>
+      </c>
+      <c r="X25" s="47">
+        <v>110</v>
+      </c>
+      <c r="Y25" s="47">
+        <v>115</v>
+      </c>
+      <c r="Z25" s="47">
+        <v>120</v>
+      </c>
+      <c r="AA25" s="47">
+        <v>125</v>
+      </c>
+      <c r="AB25" s="47">
+        <v>130</v>
+      </c>
+      <c r="AC25" s="47">
+        <v>135</v>
+      </c>
+      <c r="AD25" s="47">
+        <v>140</v>
+      </c>
+      <c r="AE25" s="47">
+        <v>145</v>
+      </c>
+      <c r="AF25" s="47">
+        <v>150</v>
+      </c>
+      <c r="AG25" s="47">
+        <v>155</v>
+      </c>
+      <c r="AH25" s="48">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="30"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="20">
-        <v>0</v>
-      </c>
-      <c r="C25" s="20">
-        <v>5</v>
-      </c>
-      <c r="D25" s="20">
-        <v>10</v>
-      </c>
-      <c r="E25" s="20">
-        <v>15</v>
-      </c>
-      <c r="F25" s="20">
-        <v>20</v>
-      </c>
-      <c r="G25" s="20">
-        <v>25</v>
-      </c>
-      <c r="H25" s="20">
-        <v>30</v>
-      </c>
-      <c r="I25" s="20">
-        <v>35</v>
-      </c>
-      <c r="J25" s="20">
-        <v>40</v>
-      </c>
-      <c r="K25" s="20">
-        <v>45</v>
-      </c>
-      <c r="L25" s="20">
-        <v>50</v>
-      </c>
-      <c r="M25" s="20">
-        <v>55</v>
-      </c>
-      <c r="N25" s="20">
-        <v>60</v>
-      </c>
-      <c r="O25" s="20">
-        <v>65</v>
-      </c>
-      <c r="P25" s="20">
-        <v>70</v>
-      </c>
-      <c r="Q25" s="20">
-        <v>75</v>
-      </c>
-      <c r="R25" s="20">
-        <v>80</v>
-      </c>
-      <c r="S25" s="20">
-        <v>85</v>
-      </c>
-      <c r="T25" s="20">
-        <v>90</v>
-      </c>
-      <c r="U25" s="20">
-        <v>95</v>
-      </c>
-      <c r="V25" s="20">
-        <v>100</v>
-      </c>
-      <c r="W25" s="20">
-        <v>105</v>
-      </c>
-      <c r="X25" s="20">
-        <v>110</v>
-      </c>
-      <c r="Y25" s="20">
-        <v>115</v>
-      </c>
-      <c r="Z25" s="20">
-        <v>120</v>
-      </c>
-      <c r="AA25" s="20">
-        <v>125</v>
-      </c>
-      <c r="AB25" s="20">
-        <v>130</v>
-      </c>
-      <c r="AC25" s="20">
-        <v>135</v>
-      </c>
-      <c r="AD25" s="20">
-        <v>140</v>
-      </c>
-      <c r="AE25" s="20">
-        <v>145</v>
-      </c>
-      <c r="AF25" s="20">
-        <v>150</v>
-      </c>
-      <c r="AG25" s="20">
-        <v>155</v>
-      </c>
-      <c r="AH25" s="20">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="23">
+      <c r="B26" s="26">
         <f>1-POWER((1-B9),3)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <f t="shared" ref="C26:AB26" si="52">1-POWER((1-C9),3)</f>
         <v>0.99999952119731028</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="20">
         <f t="shared" si="52"/>
         <v>0.99997041731757874</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="20">
         <f t="shared" si="52"/>
         <v>0.99968215110749659</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="20">
         <f t="shared" si="52"/>
         <v>0.99835326331332808</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="20">
         <f t="shared" si="52"/>
         <v>0.99433406429415327</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="20">
         <f t="shared" si="52"/>
         <v>0.98506093748211732</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="20">
         <f t="shared" si="52"/>
         <v>0.96740252072259691</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="20">
         <f t="shared" si="52"/>
         <v>0.93833387145953917</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="20">
         <f t="shared" si="52"/>
         <v>0.89572205395691251</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="20">
         <f t="shared" si="52"/>
         <v>0.83895587908785785</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="20">
         <f t="shared" si="52"/>
         <v>0.76921675798239852</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="20">
         <f t="shared" si="52"/>
         <v>0.68932471223432712</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="20">
         <f t="shared" si="52"/>
         <v>0.6032363878674537</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="20">
         <f t="shared" si="52"/>
         <v>0.51536431273097227</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="20">
         <f t="shared" si="52"/>
         <v>0.42990568232131698</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="20">
         <f t="shared" si="52"/>
         <v>0.35032596650119929</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="20">
         <f t="shared" si="52"/>
         <v>0.27906868563004383</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="20">
         <f t="shared" si="52"/>
         <v>0.21749030841910422</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="20">
         <f t="shared" si="52"/>
         <v>0.1659695894134694</v>
       </c>
-      <c r="V26" s="23">
+      <c r="V26" s="20">
         <f t="shared" si="52"/>
         <v>0.12412012611376322</v>
       </c>
-      <c r="W26" s="23">
+      <c r="W26" s="20">
         <f t="shared" si="52"/>
         <v>9.1038419133595339E-2</v>
       </c>
-      <c r="X26" s="23">
+      <c r="X26" s="20">
         <f t="shared" si="52"/>
         <v>6.5537085504076331E-2</v>
       </c>
-      <c r="Y26" s="23">
+      <c r="Y26" s="20">
         <f t="shared" si="52"/>
         <v>4.6334213615633613E-2</v>
       </c>
-      <c r="Z26" s="23">
+      <c r="Z26" s="20">
         <f t="shared" si="52"/>
         <v>3.2188454353730855E-2</v>
       </c>
-      <c r="AA26" s="23">
+      <c r="AA26" s="20">
         <f t="shared" si="52"/>
         <v>2.1982312885227451E-2</v>
       </c>
-      <c r="AB26" s="23">
+      <c r="AB26" s="20">
         <f t="shared" si="52"/>
         <v>1.4763035836368066E-2</v>
       </c>
-      <c r="AC26" s="23">
+      <c r="AC26" s="20">
         <f t="shared" ref="AC26:AH26" si="53">1-POWER((1-AC9),3)</f>
         <v>9.7527727883282012E-3</v>
       </c>
-      <c r="AD26" s="23">
+      <c r="AD26" s="20">
         <f t="shared" si="53"/>
         <v>6.339042453976873E-3</v>
       </c>
-      <c r="AE26" s="23">
+      <c r="AE26" s="20">
         <f t="shared" si="53"/>
         <v>4.0544514208583626E-3</v>
       </c>
-      <c r="AF26" s="23">
+      <c r="AF26" s="20">
         <f t="shared" si="53"/>
         <v>2.5521408039087534E-3</v>
       </c>
-      <c r="AG26" s="23">
+      <c r="AG26" s="20">
         <f t="shared" si="53"/>
         <v>1.5811680356841995E-3</v>
       </c>
@@ -22100,135 +22312,135 @@
         <v>9.6422447433519576E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="23">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="26">
         <f>3*B10*POWER((1-B9),2)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="20">
         <f t="shared" ref="C27:AB27" si="54">3*C10*POWER((1-C9),2)</f>
         <v>5.7230987666574264E-7</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="20">
         <f t="shared" si="54"/>
         <v>1.7472259062319077E-5</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="20">
         <f t="shared" si="54"/>
         <v>1.226990073358553E-4</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="20">
         <f t="shared" si="54"/>
         <v>4.6363068528748987E-4</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="20">
         <f t="shared" si="54"/>
         <v>1.2306900923788856E-3</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="20">
         <f t="shared" si="54"/>
         <v>2.5852987474267704E-3</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="20">
         <f t="shared" si="54"/>
         <v>4.5816552719548159E-3</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="20">
         <f t="shared" si="54"/>
         <v>7.1191042669235408E-3</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="20">
         <f t="shared" si="54"/>
         <v>9.9469302076495639E-3</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="20">
         <f t="shared" si="54"/>
         <v>1.2719604928830491E-2</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="20">
         <f t="shared" si="54"/>
         <v>1.5080282554705103E-2</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="20">
         <f t="shared" si="54"/>
         <v>1.6742283524063113E-2</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="20">
         <f t="shared" si="54"/>
         <v>1.7543652936460392E-2</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="20">
         <f t="shared" si="54"/>
         <v>1.7463515629430871E-2</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="20">
         <f t="shared" si="54"/>
         <v>1.6603456000399329E-2</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="20">
         <f t="shared" si="54"/>
         <v>1.5146789256896793E-2</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="20">
         <f t="shared" si="54"/>
         <v>1.3311307818690082E-2</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T27" s="20">
         <f t="shared" si="54"/>
         <v>1.1308159772043636E-2</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U27" s="20">
         <f t="shared" si="54"/>
         <v>9.313859018981397E-3</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V27" s="20">
         <f t="shared" si="54"/>
         <v>7.4568338656786168E-3</v>
       </c>
-      <c r="W27" s="23">
+      <c r="W27" s="20">
         <f t="shared" si="54"/>
         <v>5.816064000271827E-3</v>
       </c>
-      <c r="X27" s="23">
+      <c r="X27" s="20">
         <f t="shared" si="54"/>
         <v>4.4276484766341793E-3</v>
       </c>
-      <c r="Y27" s="23">
+      <c r="Y27" s="20">
         <f t="shared" si="54"/>
         <v>3.2951513747416792E-3</v>
       </c>
-      <c r="Z27" s="23">
+      <c r="Z27" s="20">
         <f t="shared" si="54"/>
         <v>2.4005326584680985E-3</v>
       </c>
-      <c r="AA27" s="23">
+      <c r="AA27" s="20">
         <f t="shared" si="54"/>
         <v>1.7137108872553061E-3</v>
       </c>
-      <c r="AB27" s="23">
+      <c r="AB27" s="20">
         <f t="shared" si="54"/>
         <v>1.1998922150644367E-3</v>
       </c>
-      <c r="AC27" s="23">
+      <c r="AC27" s="20">
         <f t="shared" ref="AC27:AH27" si="55">3*AC10*POWER((1-AC9),2)</f>
         <v>8.245583804771567E-4</v>
       </c>
-      <c r="AD27" s="23">
+      <c r="AD27" s="20">
         <f t="shared" si="55"/>
         <v>5.5642972530921264E-4</v>
       </c>
-      <c r="AE27" s="23">
+      <c r="AE27" s="20">
         <f t="shared" si="55"/>
         <v>3.688854887611437E-4</v>
       </c>
-      <c r="AF27" s="23">
+      <c r="AF27" s="20">
         <f t="shared" si="55"/>
         <v>2.4032874635667462E-4</v>
       </c>
-      <c r="AG27" s="23">
+      <c r="AG27" s="20">
         <f t="shared" si="55"/>
         <v>1.5390774453874378E-4</v>
       </c>
@@ -22237,376 +22449,377 @@
         <v>9.6903247928048511E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="23">
+        <v>56</v>
+      </c>
+      <c r="B28" s="30">
         <f>B27/B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="28">
         <f t="shared" ref="C28:AB28" si="56">C27/C26</f>
         <v>5.723101506893821E-7</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="28">
         <f t="shared" si="56"/>
         <v>1.7472775953901137E-5</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="28">
         <f t="shared" si="56"/>
         <v>1.2273801947941488E-4</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="28">
         <f t="shared" si="56"/>
         <v>4.6439542226645855E-4</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="28">
         <f t="shared" si="56"/>
         <v>1.2377028370767064E-3</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="28">
         <f t="shared" si="56"/>
         <v>2.6245064128062674E-3</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="28">
         <f t="shared" si="56"/>
         <v>4.7360381783299148E-3</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="28">
         <f t="shared" si="56"/>
         <v>7.5869628961065545E-3</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="28">
         <f t="shared" si="56"/>
         <v>1.1104929440676748E-2</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="28">
         <f t="shared" si="56"/>
         <v>1.5161232248184123E-2</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="28">
         <f t="shared" si="56"/>
         <v>1.9604724413778536E-2</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="28">
         <f t="shared" si="56"/>
         <v>2.4287949099918223E-2</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O28" s="28">
         <f t="shared" si="56"/>
         <v>2.9082550869453147E-2</v>
       </c>
-      <c r="P28" s="23">
+      <c r="P28" s="28">
         <f t="shared" si="56"/>
         <v>3.3885768179969189E-2</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="28">
         <f t="shared" si="56"/>
         <v>3.862115967099429E-2</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="28">
         <f t="shared" si="56"/>
         <v>4.3236273371831085E-2</v>
       </c>
-      <c r="S28" s="23">
+      <c r="S28" s="28">
         <f t="shared" si="56"/>
         <v>4.7699037921928061E-2</v>
       </c>
-      <c r="T28" s="23">
+      <c r="T28" s="28">
         <f t="shared" si="56"/>
         <v>5.1993855975654743E-2</v>
       </c>
-      <c r="U28" s="23">
+      <c r="U28" s="28">
         <f t="shared" si="56"/>
         <v>5.6117865037180859E-2</v>
       </c>
-      <c r="V28" s="23">
+      <c r="V28" s="28">
         <f t="shared" si="56"/>
         <v>6.0077556308990539E-2</v>
       </c>
-      <c r="W28" s="23">
+      <c r="W28" s="28">
         <f t="shared" si="56"/>
         <v>6.3885819367502192E-2</v>
       </c>
-      <c r="X28" s="23">
+      <c r="X28" s="28">
         <f t="shared" si="56"/>
         <v>6.7559435128661388E-2</v>
       </c>
-      <c r="Y28" s="23">
+      <c r="Y28" s="28">
         <f t="shared" si="56"/>
         <v>7.1117023849302213E-2</v>
       </c>
-      <c r="Z28" s="23">
+      <c r="Z28" s="28">
         <f t="shared" si="56"/>
         <v>7.4577444200574383E-2</v>
       </c>
-      <c r="AA28" s="23">
+      <c r="AA28" s="28">
         <f t="shared" si="56"/>
         <v>7.7958625018341624E-2</v>
       </c>
-      <c r="AB28" s="23">
+      <c r="AB28" s="28">
         <f t="shared" si="56"/>
         <v>8.1276793497212604E-2</v>
       </c>
-      <c r="AC28" s="23">
+      <c r="AC28" s="28">
         <f t="shared" ref="AC28" si="57">AC27/AC26</f>
         <v>8.4546046378109127E-2</v>
       </c>
-      <c r="AD28" s="23">
+      <c r="AD28" s="28">
         <f t="shared" ref="AD28" si="58">AD27/AD26</f>
         <v>8.7778198260863499E-2</v>
       </c>
-      <c r="AE28" s="23">
+      <c r="AE28" s="28">
         <f t="shared" ref="AE28" si="59">AE27/AE26</f>
         <v>9.0982836016579388E-2</v>
       </c>
-      <c r="AF28" s="23">
+      <c r="AF28" s="28">
         <f t="shared" ref="AF28" si="60">AF27/AF26</f>
         <v>9.4167510659520448E-2</v>
       </c>
-      <c r="AG28" s="23">
+      <c r="AG28" s="28">
         <f t="shared" ref="AG28" si="61">AG27/AG26</f>
         <v>9.7338006502354552E-2</v>
       </c>
-      <c r="AH28" s="23">
+      <c r="AH28" s="29">
         <f t="shared" ref="AH28" si="62">AH27/AH26</f>
         <v>0.10049863958790346</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+    <row r="29" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="46">
         <v>0</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="47">
         <v>5</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="47">
         <v>10</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="47">
         <v>15</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="47">
         <v>20</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="47">
         <v>25</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="47">
         <v>30</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="47">
         <v>35</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="47">
         <v>40</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="47">
         <v>45</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="47">
         <v>50</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="47">
         <v>55</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N30" s="47">
         <v>60</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="47">
         <v>65</v>
       </c>
-      <c r="P30" s="20">
+      <c r="P30" s="47">
         <v>70</v>
       </c>
-      <c r="Q30" s="20">
+      <c r="Q30" s="47">
         <v>75</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="47">
         <v>80</v>
       </c>
-      <c r="S30" s="20">
+      <c r="S30" s="47">
         <v>85</v>
       </c>
-      <c r="T30" s="20">
+      <c r="T30" s="47">
         <v>90</v>
       </c>
-      <c r="U30" s="20">
+      <c r="U30" s="47">
         <v>95</v>
       </c>
-      <c r="V30" s="20">
+      <c r="V30" s="47">
         <v>100</v>
       </c>
-      <c r="W30" s="20">
+      <c r="W30" s="47">
         <v>105</v>
       </c>
-      <c r="X30" s="20">
+      <c r="X30" s="47">
         <v>110</v>
       </c>
-      <c r="Y30" s="20">
+      <c r="Y30" s="47">
         <v>115</v>
       </c>
-      <c r="Z30" s="20">
+      <c r="Z30" s="47">
         <v>120</v>
       </c>
-      <c r="AA30" s="20">
+      <c r="AA30" s="47">
         <v>125</v>
       </c>
-      <c r="AB30" s="20">
+      <c r="AB30" s="47">
         <v>130</v>
       </c>
-      <c r="AC30" s="20">
+      <c r="AC30" s="47">
         <v>135</v>
       </c>
-      <c r="AD30" s="20">
+      <c r="AD30" s="47">
         <v>140</v>
       </c>
-      <c r="AE30" s="20">
+      <c r="AE30" s="47">
         <v>145</v>
       </c>
-      <c r="AF30" s="20">
+      <c r="AF30" s="47">
         <v>150</v>
       </c>
-      <c r="AG30" s="20">
+      <c r="AG30" s="47">
         <v>155</v>
       </c>
-      <c r="AH30" s="20">
+      <c r="AH30" s="48">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="23">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="26">
         <f>POWER((1-POWER((1-B9),3)),5)</f>
         <v>1</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="20">
         <f t="shared" ref="C31:AB31" si="63">POWER((1-POWER((1-C9),3)),5)</f>
         <v>0.99999760598884402</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="20">
         <f t="shared" si="63"/>
         <v>0.99985209533898578</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="20">
         <f t="shared" si="63"/>
         <v>0.99841176549560251</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="20">
         <f t="shared" si="63"/>
         <v>0.99179338936530259</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="20">
         <f t="shared" si="63"/>
         <v>0.97198953596655124</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="20">
         <f t="shared" si="63"/>
         <v>0.92750335125160865</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="20">
         <f t="shared" si="63"/>
         <v>0.84729778950838031</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="20">
         <f t="shared" si="63"/>
         <v>0.72742289782400316</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="20">
         <f t="shared" si="63"/>
         <v>0.57658897835783551</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="20">
         <f t="shared" si="63"/>
         <v>0.41561920647128658</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="20">
         <f t="shared" si="63"/>
         <v>0.26930454659884645</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N31" s="20">
         <f t="shared" si="63"/>
         <v>0.15563929000550383</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O31" s="20">
         <f t="shared" si="63"/>
         <v>7.9879925988418435E-2</v>
       </c>
-      <c r="P31" s="23">
+      <c r="P31" s="20">
         <f t="shared" si="63"/>
         <v>3.6355632860062881E-2</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="20">
         <f t="shared" si="63"/>
         <v>1.4684728702542033E-2</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="20">
         <f t="shared" si="63"/>
         <v>5.2766907729621679E-3</v>
       </c>
-      <c r="S31" s="23">
+      <c r="S31" s="20">
         <f t="shared" si="63"/>
         <v>1.69260466938405E-3</v>
       </c>
-      <c r="T31" s="23">
+      <c r="T31" s="20">
         <f t="shared" si="63"/>
         <v>4.8663074699714756E-4</v>
       </c>
-      <c r="U31" s="23">
+      <c r="U31" s="20">
         <f t="shared" si="63"/>
         <v>1.2593388404132352E-4</v>
       </c>
-      <c r="V31" s="23">
+      <c r="V31" s="20">
         <f t="shared" si="63"/>
         <v>2.9458527927455063E-5</v>
       </c>
-      <c r="W31" s="23">
+      <c r="W31" s="20">
         <f t="shared" si="63"/>
         <v>6.2535055315694554E-6</v>
       </c>
-      <c r="X31" s="23">
+      <c r="X31" s="20">
         <f t="shared" si="63"/>
         <v>1.2090259430107927E-6</v>
       </c>
-      <c r="Y31" s="23">
+      <c r="Y31" s="20">
         <f t="shared" si="63"/>
         <v>2.1355462568224933E-7</v>
       </c>
-      <c r="Z31" s="23">
+      <c r="Z31" s="20">
         <f t="shared" si="63"/>
         <v>3.4554181869528608E-8</v>
       </c>
-      <c r="AA31" s="23">
+      <c r="AA31" s="20">
         <f t="shared" si="63"/>
         <v>5.1329487200070213E-9</v>
       </c>
-      <c r="AB31" s="23">
+      <c r="AB31" s="20">
         <f t="shared" si="63"/>
         <v>7.0125887377893311E-10</v>
       </c>
-      <c r="AC31" s="23">
+      <c r="AC31" s="20">
         <f t="shared" ref="AC31:AH31" si="64">POWER((1-POWER((1-AC9),3)),5)</f>
         <v>8.8234927378219194E-11</v>
       </c>
-      <c r="AD31" s="23">
+      <c r="AD31" s="20">
         <f t="shared" si="64"/>
         <v>1.0235717750842774E-11</v>
       </c>
-      <c r="AE31" s="23">
+      <c r="AE31" s="20">
         <f t="shared" si="64"/>
         <v>1.0956213990077132E-12</v>
       </c>
-      <c r="AF31" s="23">
+      <c r="AF31" s="20">
         <f t="shared" si="64"/>
         <v>1.0827374428029005E-13</v>
       </c>
-      <c r="AG31" s="23">
+      <c r="AG31" s="20">
         <f t="shared" si="64"/>
         <v>9.883030396743601E-15</v>
       </c>
@@ -22615,135 +22828,135 @@
         <v>8.3347149926245138E-16</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="23">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="26">
         <f>B33*B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="20">
         <f t="shared" ref="C32:AB32" si="65">C33*C31</f>
         <v>2.8615439028624835E-6</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="20">
         <f t="shared" si="65"/>
         <v>8.7350958244483486E-5</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="20">
         <f t="shared" si="65"/>
         <v>6.1271541360938134E-4</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="20">
         <f t="shared" si="65"/>
         <v>2.302921549276909E-3</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="20">
         <f t="shared" si="65"/>
         <v>6.0151710313733594E-3</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="20">
         <f t="shared" si="65"/>
         <v>1.2171192466295755E-2</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="20">
         <f t="shared" si="65"/>
         <v>2.0064173397631165E-2</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="20">
         <f t="shared" si="65"/>
         <v>2.7594652677845104E-2</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="20">
         <f t="shared" si="65"/>
         <v>3.2014899604678279E-2</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="20">
         <f t="shared" si="65"/>
         <v>3.1506496580585824E-2</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="20">
         <f t="shared" si="65"/>
         <v>2.639820709723982E-2</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="20">
         <f t="shared" si="65"/>
         <v>1.8900795768005439E-2</v>
       </c>
-      <c r="O32" s="23">
+      <c r="O32" s="20">
         <f t="shared" si="65"/>
         <v>1.1615560055031659E-2</v>
       </c>
-      <c r="P32" s="23">
+      <c r="P32" s="20">
         <f t="shared" si="65"/>
         <v>6.1596927356608053E-3</v>
       </c>
-      <c r="Q32" s="23">
+      <c r="Q32" s="20">
         <f t="shared" si="65"/>
         <v>2.835706259730543E-3</v>
       </c>
-      <c r="R32" s="23">
+      <c r="R32" s="20">
         <f t="shared" si="65"/>
         <v>1.1407222237920548E-3</v>
       </c>
-      <c r="S32" s="23">
+      <c r="S32" s="20">
         <f t="shared" si="65"/>
         <v>4.0367807155891155E-4</v>
       </c>
-      <c r="T32" s="23">
+      <c r="T32" s="20">
         <f t="shared" si="65"/>
         <v>1.2650904486347488E-4</v>
       </c>
-      <c r="U32" s="23">
+      <c r="U32" s="20">
         <f t="shared" si="65"/>
         <v>3.5335703541194886E-5</v>
       </c>
-      <c r="V32" s="23">
+      <c r="V32" s="20">
         <f t="shared" si="65"/>
         <v>8.84898185170826E-6</v>
       </c>
-      <c r="W32" s="23">
+      <c r="W32" s="20">
         <f t="shared" si="65"/>
         <v>1.9975516240176102E-6</v>
       </c>
-      <c r="X32" s="23">
+      <c r="X32" s="20">
         <f t="shared" si="65"/>
         <v>4.0840554882853151E-7</v>
       </c>
-      <c r="Y32" s="23">
+      <c r="Y32" s="20">
         <f t="shared" si="65"/>
         <v>7.5936847038866651E-8</v>
       </c>
-      <c r="Z32" s="23">
+      <c r="Z32" s="20">
         <f t="shared" si="65"/>
         <v>1.2884812851356345E-8</v>
       </c>
-      <c r="AA32" s="23">
+      <c r="AA32" s="20">
         <f t="shared" si="65"/>
         <v>2.0007881225070198E-9</v>
       </c>
-      <c r="AB32" s="23">
+      <c r="AB32" s="20">
         <f t="shared" si="65"/>
         <v>2.8498036336109113E-10</v>
       </c>
-      <c r="AC32" s="23">
+      <c r="AC32" s="20">
         <f t="shared" ref="AC32" si="66">AC33*AC31</f>
         <v>3.7299571311440054E-11</v>
       </c>
-      <c r="AD32" s="23">
+      <c r="AD32" s="20">
         <f t="shared" ref="AD32" si="67">AD33*AD31</f>
         <v>4.4923643103785844E-12</v>
       </c>
-      <c r="AE32" s="23">
+      <c r="AE32" s="20">
         <f t="shared" ref="AE32" si="68">AE33*AE31</f>
         <v>4.9841371041087036E-13</v>
       </c>
-      <c r="AF32" s="23">
+      <c r="AF32" s="20">
         <f t="shared" ref="AF32" si="69">AF33*AF31</f>
         <v>5.0979344843302026E-14</v>
       </c>
-      <c r="AG32" s="23">
+      <c r="AG32" s="20">
         <f t="shared" ref="AG32" si="70">AG33*AG31</f>
         <v>4.8099723851059818E-15</v>
       </c>
@@ -22752,139 +22965,139 @@
         <v>4.1881375905583325E-16</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="23">
+        <v>62</v>
+      </c>
+      <c r="B33" s="30">
         <f>B28*5</f>
         <v>0</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="28">
         <f t="shared" ref="C33:AB33" si="72">C28*5</f>
         <v>2.8615507534469105E-6</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="28">
         <f t="shared" si="72"/>
         <v>8.7363879769505683E-5</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="28">
         <f t="shared" si="72"/>
         <v>6.1369009739707442E-4</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="28">
         <f t="shared" si="72"/>
         <v>2.3219771113322926E-3</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="28">
         <f t="shared" si="72"/>
         <v>6.1885141853835323E-3</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="28">
         <f t="shared" si="72"/>
         <v>1.3122532064031337E-2</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="28">
         <f t="shared" si="72"/>
         <v>2.3680190891649574E-2</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="28">
         <f t="shared" si="72"/>
         <v>3.7934814480532771E-2</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="28">
         <f t="shared" si="72"/>
         <v>5.5524647203383737E-2</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="28">
         <f t="shared" si="72"/>
         <v>7.5806161240920614E-2</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="28">
         <f t="shared" si="72"/>
         <v>9.8023622068892674E-2</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N33" s="28">
         <f t="shared" si="72"/>
         <v>0.12143974549959111</v>
       </c>
-      <c r="O33" s="23">
+      <c r="O33" s="28">
         <f t="shared" si="72"/>
         <v>0.14541275434726575</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P33" s="28">
         <f t="shared" si="72"/>
         <v>0.16942884089984594</v>
       </c>
-      <c r="Q33" s="23">
+      <c r="Q33" s="28">
         <f t="shared" si="72"/>
         <v>0.19310579835497144</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="28">
         <f t="shared" si="72"/>
         <v>0.21618136685915543</v>
       </c>
-      <c r="S33" s="23">
+      <c r="S33" s="28">
         <f t="shared" si="72"/>
         <v>0.23849518960964031</v>
       </c>
-      <c r="T33" s="23">
+      <c r="T33" s="28">
         <f t="shared" si="72"/>
         <v>0.25996927987827373</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="28">
         <f t="shared" si="72"/>
         <v>0.28058932518590429</v>
       </c>
-      <c r="V33" s="23">
+      <c r="V33" s="28">
         <f t="shared" si="72"/>
         <v>0.30038778154495271</v>
       </c>
-      <c r="W33" s="23">
+      <c r="W33" s="28">
         <f t="shared" si="72"/>
         <v>0.31942909683751097</v>
       </c>
-      <c r="X33" s="23">
+      <c r="X33" s="28">
         <f t="shared" si="72"/>
         <v>0.33779717564330691</v>
       </c>
-      <c r="Y33" s="23">
+      <c r="Y33" s="28">
         <f t="shared" si="72"/>
         <v>0.35558511924651104</v>
       </c>
-      <c r="Z33" s="23">
+      <c r="Z33" s="28">
         <f t="shared" si="72"/>
         <v>0.37288722100287192</v>
       </c>
-      <c r="AA33" s="23">
+      <c r="AA33" s="28">
         <f t="shared" si="72"/>
         <v>0.3897931250917081</v>
       </c>
-      <c r="AB33" s="23">
+      <c r="AB33" s="28">
         <f t="shared" si="72"/>
         <v>0.40638396748606304</v>
       </c>
-      <c r="AC33" s="23">
+      <c r="AC33" s="28">
         <f t="shared" ref="AC33:AH33" si="73">AC28*5</f>
         <v>0.42273023189054565</v>
       </c>
-      <c r="AD33" s="23">
+      <c r="AD33" s="28">
         <f t="shared" si="73"/>
         <v>0.43889099130431752</v>
       </c>
-      <c r="AE33" s="23">
+      <c r="AE33" s="28">
         <f t="shared" si="73"/>
         <v>0.45491418008289697</v>
       </c>
-      <c r="AF33" s="23">
+      <c r="AF33" s="28">
         <f t="shared" si="73"/>
         <v>0.47083755329760224</v>
       </c>
-      <c r="AG33" s="23">
+      <c r="AG33" s="28">
         <f t="shared" si="73"/>
         <v>0.48669003251177279</v>
       </c>
-      <c r="AH33" s="23">
+      <c r="AH33" s="29">
         <f t="shared" si="73"/>
         <v>0.5024931979395173</v>
       </c>
@@ -22904,1721 +23117,1723 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+    </row>
+    <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="76">
+        <v>0.02</v>
+      </c>
+      <c r="C2" s="77"/>
+    </row>
+    <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+    <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="72"/>
+    </row>
+    <row r="6" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
+    </row>
+    <row r="8" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="43">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+    <row r="10" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="44">
+      <c r="B10" s="45">
         <f>1/B2</f>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
-        <v>53</v>
+    <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="56">
         <v>0</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="57">
         <v>5</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="57">
         <v>10</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="57">
         <v>15</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="57">
         <v>20</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="57">
         <v>25</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="57">
         <v>30</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="57">
         <v>35</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="57">
         <v>40</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="57">
         <v>45</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="57">
         <v>50</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="57">
         <v>55</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="57">
         <v>60</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="57">
         <v>65</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="57">
         <v>70</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="57">
         <v>75</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="57">
         <v>80</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="57">
         <v>85</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="57">
         <v>90</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="57">
         <v>95</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="57">
         <v>100</v>
       </c>
-      <c r="W13" s="20">
+      <c r="W13" s="57">
         <v>105</v>
       </c>
-      <c r="X13" s="20">
+      <c r="X13" s="57">
         <v>110</v>
       </c>
-      <c r="Y13" s="20">
+      <c r="Y13" s="57">
         <v>115</v>
       </c>
-      <c r="Z13" s="20">
+      <c r="Z13" s="57">
         <v>120</v>
       </c>
-      <c r="AA13" s="20">
+      <c r="AA13" s="57">
         <v>125</v>
       </c>
-      <c r="AB13" s="20">
+      <c r="AB13" s="57">
         <v>130</v>
       </c>
-      <c r="AC13" s="20">
+      <c r="AC13" s="57">
         <v>135</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AD13" s="57">
         <v>140</v>
       </c>
-      <c r="AE13" s="20">
+      <c r="AE13" s="57">
         <v>145</v>
       </c>
-      <c r="AF13" s="20">
+      <c r="AF13" s="57">
         <v>150</v>
       </c>
-      <c r="AG13" s="21">
+      <c r="AG13" s="58">
         <v>155</v>
       </c>
-      <c r="AH13" s="27"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="23">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="36">
         <f>1-GAMMADIST(B13,3,1/(5*$B$2),1)</f>
         <v>1</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="31">
         <f t="shared" ref="C14:S14" si="0">1-GAMMADIST(C13,3,1/(5*$B$2),1)</f>
         <v>0.98561232203302929</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="31">
         <f t="shared" si="0"/>
         <v>0.91969860292860584</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="31">
         <f t="shared" si="0"/>
         <v>0.80884683053805806</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="31">
         <f t="shared" si="0"/>
         <v>0.6766764161830634</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="31">
         <f t="shared" si="0"/>
         <v>0.54381311588332959</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="31">
         <f t="shared" si="0"/>
         <v>0.42319008112684342</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="31">
         <f t="shared" si="0"/>
         <v>0.32084719886213409</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="31">
         <f t="shared" si="0"/>
         <v>0.23810330555354431</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="31">
         <f t="shared" si="0"/>
         <v>0.17357807091003608</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="31">
         <f t="shared" si="0"/>
         <v>0.12465201948308113</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="31">
         <f t="shared" si="0"/>
         <v>8.8376432356785495E-2</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="31">
         <f t="shared" si="0"/>
         <v>6.1968804416658974E-2</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="31">
         <f t="shared" si="0"/>
         <v>4.3035946898982935E-2</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="31">
         <f t="shared" si="0"/>
         <v>2.9636163880521815E-2</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="31">
         <f t="shared" si="0"/>
         <v>2.0256715056664376E-2</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="31">
         <f t="shared" si="0"/>
         <v>1.3753967744003059E-2</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="31">
         <f t="shared" si="0"/>
         <v>9.2832443361106076E-3</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14" s="31">
         <f>1-GAMMADIST(T13,3,1/(5*$B$2),1)</f>
         <v>6.2321951063772918E-3</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="31">
         <f t="shared" ref="U14" si="1">1-GAMMADIST(U13,3,1/(5*$B$2),1)</f>
         <v>4.1636330375033337E-3</v>
       </c>
-      <c r="V14" s="23">
+      <c r="V14" s="31">
         <f>1-GAMMADIST(V13,3,1/(5*$B$2),1)</f>
         <v>2.7693957155116022E-3</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14" s="31">
         <f t="shared" ref="W14" si="2">1-GAMMADIST(W13,3,1/(5*$B$2),1)</f>
         <v>1.8346159379268867E-3</v>
       </c>
-      <c r="X14" s="23">
+      <c r="X14" s="31">
         <f t="shared" ref="X14" si="3">1-GAMMADIST(X13,3,1/(5*$B$2),1)</f>
         <v>1.210873307292859E-3</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Y14" s="31">
         <f t="shared" ref="Y14:Z14" si="4">1-GAMMADIST(Y13,3,1/(5*$B$2),1)</f>
         <v>7.9647860919229707E-4</v>
       </c>
-      <c r="Z14" s="23">
+      <c r="Z14" s="31">
         <f t="shared" si="4"/>
         <v>5.2225805003291992E-4</v>
       </c>
-      <c r="AA14" s="23">
+      <c r="AA14" s="31">
         <f t="shared" ref="AA14" si="5">1-GAMMADIST(AA13,3,1/(5*$B$2),1)</f>
         <v>3.4145459689172153E-4</v>
       </c>
-      <c r="AB14" s="23">
+      <c r="AB14" s="31">
         <f t="shared" ref="AB14" si="6">1-GAMMADIST(AB13,3,1/(5*$B$2),1)</f>
         <v>2.2264244658765087E-4</v>
       </c>
-      <c r="AC14" s="23">
+      <c r="AC14" s="31">
         <f t="shared" ref="AC14" si="7">1-GAMMADIST(AC13,3,1/(5*$B$2),1)</f>
         <v>1.448075534993265E-4</v>
       </c>
-      <c r="AD14" s="23">
+      <c r="AD14" s="31">
         <f t="shared" ref="AD14" si="8">1-GAMMADIST(AD13,3,1/(5*$B$2),1)</f>
         <v>9.3962745258746594E-5</v>
       </c>
-      <c r="AE14" s="23">
+      <c r="AE14" s="31">
         <f t="shared" ref="AE14" si="9">1-GAMMADIST(AE13,3,1/(5*$B$2),1)</f>
         <v>6.0836936797259433E-5</v>
       </c>
-      <c r="AF14" s="23">
+      <c r="AF14" s="31">
         <f t="shared" ref="AF14" si="10">1-GAMMADIST(AF13,3,1/(5*$B$2),1)</f>
         <v>3.9308448184449674E-5</v>
       </c>
-      <c r="AG14" s="25">
+      <c r="AG14" s="32">
         <f t="shared" ref="AG14" si="11">1-GAMMADIST(AG13,3,1/(5*$B$2),1)</f>
         <v>2.5349284491715807E-5</v>
       </c>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="26"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="23">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="36">
         <f>GAMMADIST(B13,3,1/(5*$B$2),0)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="31">
         <f t="shared" ref="C15:S15" si="12">GAMMADIST(C13,3,1/(5*$B$2),0)</f>
         <v>7.5816332464079192E-3</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="31">
         <f t="shared" si="12"/>
         <v>1.8393972058572117E-2</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="31">
         <f t="shared" si="12"/>
         <v>2.5102143016698365E-2</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="31">
         <f t="shared" si="12"/>
         <v>2.7067056647322545E-2</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="31">
         <f t="shared" si="12"/>
         <v>2.5651562069968378E-2</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="31">
         <f t="shared" si="12"/>
         <v>2.2404180765538781E-2</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="31">
         <f t="shared" si="12"/>
         <v>1.8495897346170083E-2</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="31">
         <f t="shared" si="12"/>
         <v>1.4652511110987346E-2</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="31">
         <f t="shared" si="12"/>
         <v>1.1247858994970335E-2</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="31">
         <f t="shared" si="12"/>
         <v>8.4224337488568342E-3</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="31">
         <f t="shared" si="12"/>
         <v>6.181241800676902E-3</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="31">
         <f t="shared" si="12"/>
         <v>4.4617539179994453E-3</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="31">
         <f t="shared" si="12"/>
         <v>3.1760152951651214E-3</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="31">
         <f t="shared" si="12"/>
         <v>2.2341108156085656E-3</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="31">
         <f t="shared" si="12"/>
         <v>1.5555497910407817E-3</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="31">
         <f t="shared" si="12"/>
         <v>1.0734804092880381E-3</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="31">
         <f t="shared" si="12"/>
         <v>7.3502948305095221E-4</v>
       </c>
-      <c r="T15" s="23">
+      <c r="T15" s="31">
         <f>GAMMADIST(T13,3,1/(5*$B$2),0)</f>
         <v>4.998097065510523E-4</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="31">
         <f t="shared" ref="U15" si="13">GAMMADIST(U13,3,1/(5*$B$2),0)</f>
         <v>3.3776888236824901E-4</v>
       </c>
-      <c r="V15" s="23">
+      <c r="V15" s="31">
         <f>GAMMADIST(V13,3,1/(5*$B$2),0)</f>
         <v>2.2699964881242444E-4</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="31">
         <f t="shared" ref="W15:Y15" si="14">GAMMADIST(W13,3,1/(5*$B$2),0)</f>
         <v>1.5179467704048129E-4</v>
       </c>
-      <c r="X15" s="23">
+      <c r="X15" s="31">
         <f t="shared" si="14"/>
         <v>1.0104528978098625E-4</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="Y15" s="31">
         <f t="shared" si="14"/>
         <v>6.6985243920945545E-5</v>
       </c>
-      <c r="Z15" s="23">
+      <c r="Z15" s="31">
         <f t="shared" ref="Z15:AA15" si="15">GAMMADIST(Z13,3,1/(5*$B$2),0)</f>
         <v>4.4238328943963091E-5</v>
       </c>
-      <c r="AA15" s="23">
+      <c r="AA15" s="31">
         <f t="shared" si="15"/>
         <v>2.9114477906864625E-5</v>
       </c>
-      <c r="AB15" s="23">
+      <c r="AB15" s="31">
         <f t="shared" ref="AB15:AG15" si="16">GAMMADIST(AB13,3,1/(5*$B$2),0)</f>
         <v>1.9099783488989898E-5</v>
       </c>
-      <c r="AC15" s="23">
+      <c r="AC15" s="31">
         <f t="shared" si="16"/>
         <v>1.2492864674674963E-5</v>
       </c>
-      <c r="AD15" s="23">
+      <c r="AD15" s="31">
         <f t="shared" si="16"/>
         <v>8.1489814472149706E-6</v>
       </c>
-      <c r="AE15" s="23">
+      <c r="AE15" s="31">
         <f t="shared" si="16"/>
         <v>5.3019548027449201E-6</v>
       </c>
-      <c r="AF15" s="23">
+      <c r="AF15" s="31">
         <f t="shared" si="16"/>
         <v>3.4414011056455377E-6</v>
       </c>
-      <c r="AG15" s="25">
+      <c r="AG15" s="32">
         <f t="shared" si="16"/>
         <v>2.2287888743424447E-6</v>
       </c>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="23">
+    <row r="16" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="37">
         <f>B15/B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="33">
         <f t="shared" ref="C16:S16" si="17">C15/C14</f>
         <v>7.6923076923076936E-3</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="33">
         <f t="shared" si="17"/>
         <v>0.02</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="33">
         <f t="shared" si="17"/>
         <v>3.1034482758620703E-2</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="33">
         <f t="shared" si="17"/>
         <v>4.0000000000000015E-2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="33">
         <f t="shared" si="17"/>
         <v>4.716981132075472E-2</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="33">
         <f t="shared" si="17"/>
         <v>5.2941176470588262E-2</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="33">
         <f t="shared" si="17"/>
         <v>5.7647058823529412E-2</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="33">
         <f t="shared" si="17"/>
         <v>6.1538461538461556E-2</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="33">
         <f t="shared" si="17"/>
         <v>6.4799999999999983E-2</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="33">
         <f t="shared" si="17"/>
         <v>6.7567567567567571E-2</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="33">
         <f t="shared" si="17"/>
         <v>6.9942196531791873E-2</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="33">
         <f t="shared" si="17"/>
         <v>7.1999999999999981E-2</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="33">
         <f t="shared" si="17"/>
         <v>7.379912663755471E-2</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="33">
         <f t="shared" si="17"/>
         <v>7.5384615384615314E-2</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="33">
         <f t="shared" si="17"/>
         <v>7.6791808873720238E-2</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="33">
         <f t="shared" si="17"/>
         <v>7.8048780487804476E-2</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="33">
         <f t="shared" si="17"/>
         <v>7.9178082191781116E-2</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16" s="33">
         <f>T15/T14</f>
         <v>8.0198019801980547E-2</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="33">
         <f t="shared" ref="U16" si="18">U15/U14</f>
         <v>8.1123595505618221E-2</v>
       </c>
-      <c r="V16" s="23">
+      <c r="V16" s="33">
         <f>V15/V14</f>
         <v>8.1967213114753384E-2</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="33">
         <f t="shared" ref="W16" si="19">W15/W14</f>
         <v>8.273921200750553E-2</v>
       </c>
-      <c r="X16" s="23">
+      <c r="X16" s="33">
         <f t="shared" ref="X16" si="20">X15/X14</f>
         <v>8.3448275862065616E-2</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Y16" s="33">
         <f t="shared" ref="Y16:Z16" si="21">Y15/Y14</f>
         <v>8.4101748807635615E-2</v>
       </c>
-      <c r="Z16" s="23">
+      <c r="Z16" s="33">
         <f t="shared" si="21"/>
         <v>8.470588235293755E-2</v>
       </c>
-      <c r="AA16" s="23">
+      <c r="AA16" s="33">
         <f t="shared" ref="AA16" si="22">AA15/AA14</f>
         <v>8.5266030013639263E-2</v>
       </c>
-      <c r="AB16" s="23">
+      <c r="AB16" s="33">
         <f t="shared" ref="AB16" si="23">AB15/AB14</f>
         <v>8.5786802030450249E-2</v>
       </c>
-      <c r="AC16" s="23">
+      <c r="AC16" s="33">
         <f t="shared" ref="AC16" si="24">AC15/AC14</f>
         <v>8.6272189349107867E-2</v>
       </c>
-      <c r="AD16" s="23">
+      <c r="AD16" s="33">
         <f t="shared" ref="AD16" si="25">AD15/AD14</f>
         <v>8.6725663716774135E-2</v>
       </c>
-      <c r="AE16" s="23">
+      <c r="AE16" s="33">
         <f t="shared" ref="AE16" si="26">AE15/AE14</f>
         <v>8.7150259067346095E-2</v>
       </c>
-      <c r="AF16" s="23">
+      <c r="AF16" s="33">
         <f t="shared" ref="AF16" si="27">AF15/AF14</f>
         <v>8.7548638132373471E-2</v>
       </c>
-      <c r="AG16" s="25">
+      <c r="AG16" s="34">
         <f t="shared" ref="AG16" si="28">AG15/AG14</f>
         <v>8.792314730109313E-2</v>
       </c>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+    <row r="17" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="63"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="46">
+        <v>0</v>
+      </c>
+      <c r="C19" s="47">
+        <v>5</v>
+      </c>
+      <c r="D19" s="47">
+        <v>10</v>
+      </c>
+      <c r="E19" s="47">
+        <v>15</v>
+      </c>
+      <c r="F19" s="47">
+        <v>20</v>
+      </c>
+      <c r="G19" s="47">
+        <v>25</v>
+      </c>
+      <c r="H19" s="47">
+        <v>30</v>
+      </c>
+      <c r="I19" s="47">
+        <v>35</v>
+      </c>
+      <c r="J19" s="47">
+        <v>40</v>
+      </c>
+      <c r="K19" s="47">
+        <v>45</v>
+      </c>
+      <c r="L19" s="47">
+        <v>50</v>
+      </c>
+      <c r="M19" s="47">
+        <v>55</v>
+      </c>
+      <c r="N19" s="47">
+        <v>60</v>
+      </c>
+      <c r="O19" s="47">
+        <v>65</v>
+      </c>
+      <c r="P19" s="47">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="47">
+        <v>75</v>
+      </c>
+      <c r="R19" s="47">
+        <v>80</v>
+      </c>
+      <c r="S19" s="47">
+        <v>85</v>
+      </c>
+      <c r="T19" s="47">
+        <v>90</v>
+      </c>
+      <c r="U19" s="47">
+        <v>95</v>
+      </c>
+      <c r="V19" s="47">
+        <v>100</v>
+      </c>
+      <c r="W19" s="47">
+        <v>105</v>
+      </c>
+      <c r="X19" s="47">
+        <v>110</v>
+      </c>
+      <c r="Y19" s="47">
+        <v>115</v>
+      </c>
+      <c r="Z19" s="47">
+        <v>120</v>
+      </c>
+      <c r="AA19" s="47">
+        <v>125</v>
+      </c>
+      <c r="AB19" s="47">
+        <v>130</v>
+      </c>
+      <c r="AC19" s="47">
+        <v>135</v>
+      </c>
+      <c r="AD19" s="47">
+        <v>140</v>
+      </c>
+      <c r="AE19" s="47">
+        <v>145</v>
+      </c>
+      <c r="AF19" s="47">
+        <v>150</v>
+      </c>
+      <c r="AG19" s="48">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="46"/>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="20">
-        <v>0</v>
-      </c>
-      <c r="C19" s="20">
-        <v>5</v>
-      </c>
-      <c r="D19" s="20">
-        <v>10</v>
-      </c>
-      <c r="E19" s="20">
-        <v>15</v>
-      </c>
-      <c r="F19" s="20">
-        <v>20</v>
-      </c>
-      <c r="G19" s="20">
-        <v>25</v>
-      </c>
-      <c r="H19" s="20">
-        <v>30</v>
-      </c>
-      <c r="I19" s="20">
-        <v>35</v>
-      </c>
-      <c r="J19" s="20">
-        <v>40</v>
-      </c>
-      <c r="K19" s="20">
-        <v>45</v>
-      </c>
-      <c r="L19" s="20">
-        <v>50</v>
-      </c>
-      <c r="M19" s="20">
-        <v>55</v>
-      </c>
-      <c r="N19" s="20">
-        <v>60</v>
-      </c>
-      <c r="O19" s="20">
-        <v>65</v>
-      </c>
-      <c r="P19" s="20">
-        <v>70</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>75</v>
-      </c>
-      <c r="R19" s="20">
-        <v>80</v>
-      </c>
-      <c r="S19" s="20">
-        <v>85</v>
-      </c>
-      <c r="T19" s="20">
-        <v>90</v>
-      </c>
-      <c r="U19" s="20">
-        <v>95</v>
-      </c>
-      <c r="V19" s="20">
-        <v>100</v>
-      </c>
-      <c r="W19" s="20">
-        <v>105</v>
-      </c>
-      <c r="X19" s="20">
-        <v>110</v>
-      </c>
-      <c r="Y19" s="20">
-        <v>115</v>
-      </c>
-      <c r="Z19" s="20">
-        <v>120</v>
-      </c>
-      <c r="AA19" s="20">
-        <v>125</v>
-      </c>
-      <c r="AB19" s="20">
-        <v>130</v>
-      </c>
-      <c r="AC19" s="20">
-        <v>135</v>
-      </c>
-      <c r="AD19" s="20">
-        <v>140</v>
-      </c>
-      <c r="AE19" s="20">
-        <v>145</v>
-      </c>
-      <c r="AF19" s="20">
-        <v>150</v>
-      </c>
-      <c r="AG19" s="21">
-        <v>155</v>
-      </c>
-      <c r="AH19" s="27"/>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="23">
+      <c r="B20" s="26">
         <f>1-GAMMADIST(B19,3,1/$B$2,1)</f>
         <v>1</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <f t="shared" ref="C20:AB20" si="29">1-GAMMADIST(C19,3,1/$B$2,1)</f>
         <v>0.99984534692973537</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="20">
         <f t="shared" si="29"/>
         <v>0.99885151875513789</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="20">
         <f t="shared" si="29"/>
         <v>0.9964005068169105</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="20">
         <f t="shared" si="29"/>
         <v>0.99207366813274611</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="20">
         <f t="shared" si="29"/>
         <v>0.98561232203302929</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="20">
         <f t="shared" si="29"/>
         <v>0.97688471224736706</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="20">
         <f t="shared" si="29"/>
         <v>0.96585841587429155</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="20">
         <f t="shared" si="29"/>
         <v>0.95257740392850976</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="20">
         <f t="shared" si="29"/>
         <v>0.93714306570208095</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="20">
         <f t="shared" si="29"/>
         <v>0.91969860292860584</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="20">
         <f t="shared" si="29"/>
         <v>0.90041628140330521</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="20">
         <f t="shared" si="29"/>
         <v>0.87948709878363018</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="20">
         <f t="shared" si="29"/>
         <v>0.85711248909196958</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="20">
         <f t="shared" si="29"/>
         <v>0.83349773812262984</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="20">
         <f t="shared" si="29"/>
         <v>0.80884683053805806</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="20">
         <f t="shared" si="29"/>
         <v>0.78335848981926293</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="20">
         <f t="shared" si="29"/>
         <v>0.75722320719858516</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="20">
         <f t="shared" si="29"/>
         <v>0.73062108593941244</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="20">
         <f t="shared" si="29"/>
         <v>0.70372035344249784</v>
       </c>
-      <c r="V20" s="23">
+      <c r="V20" s="20">
         <f t="shared" si="29"/>
         <v>0.6766764161830634</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="20">
         <f t="shared" si="29"/>
         <v>0.649631351882069</v>
       </c>
-      <c r="X20" s="23">
+      <c r="X20" s="20">
         <f t="shared" si="29"/>
         <v>0.62271374999631646</v>
       </c>
-      <c r="Y20" s="23">
+      <c r="Y20" s="20">
         <f t="shared" si="29"/>
         <v>0.59603882593206814</v>
       </c>
-      <c r="Z20" s="23">
+      <c r="Z20" s="20">
         <f t="shared" si="29"/>
         <v>0.56970874665751048</v>
       </c>
-      <c r="AA20" s="23">
+      <c r="AA20" s="20">
         <f t="shared" si="29"/>
         <v>0.54381311588332959</v>
       </c>
-      <c r="AB20" s="23">
+      <c r="AB20" s="20">
         <f t="shared" si="29"/>
         <v>0.51842957593605044</v>
       </c>
-      <c r="AC20" s="23">
+      <c r="AC20" s="20">
         <f t="shared" ref="AC20" si="30">1-GAMMADIST(AC19,3,1/$B$2,1)</f>
         <v>0.49362449107346174</v>
       </c>
-      <c r="AD20" s="23">
+      <c r="AD20" s="20">
         <f t="shared" ref="AD20" si="31">1-GAMMADIST(AD19,3,1/$B$2,1)</f>
         <v>0.46945368346668259</v>
       </c>
-      <c r="AE20" s="23">
+      <c r="AE20" s="20">
         <f t="shared" ref="AE20" si="32">1-GAMMADIST(AE19,3,1/$B$2,1)</f>
         <v>0.44596319855718058</v>
       </c>
-      <c r="AF20" s="23">
+      <c r="AF20" s="20">
         <f t="shared" ref="AF20" si="33">1-GAMMADIST(AF19,3,1/$B$2,1)</f>
         <v>0.42319008112684342</v>
       </c>
-      <c r="AG20" s="25">
+      <c r="AG20" s="23">
         <f t="shared" ref="AG20" si="34">1-GAMMADIST(AG19,3,1/$B$2,1)</f>
         <v>0.40116314731463221</v>
       </c>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="26"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="23">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="26">
         <f>GAMMADIST(B19,3,1/$B$2,0)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <f t="shared" ref="C21:AA21" si="35">GAMMADIST(C19,3,1/$B$2,0)</f>
         <v>9.0483741803595988E-5</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <f t="shared" si="35"/>
         <v>3.274923012311929E-4</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="20">
         <f t="shared" si="35"/>
         <v>6.6673639861354573E-4</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="20">
         <f t="shared" si="35"/>
         <v>1.072512073657023E-3</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="20">
         <f t="shared" si="35"/>
         <v>1.5163266492815837E-3</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="20">
         <f t="shared" si="35"/>
         <v>1.975721889938495E-3</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="20">
         <f t="shared" si="35"/>
         <v>2.4332679885779064E-3</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="20">
         <f t="shared" si="35"/>
         <v>2.8757053703502185E-3</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="20">
         <f t="shared" si="35"/>
         <v>3.293214243898853E-3</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="20">
         <f t="shared" si="35"/>
         <v>3.6787944117144234E-3</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <f t="shared" si="35"/>
         <v>4.0277401127467626E-3</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="20">
         <f t="shared" si="35"/>
         <v>4.3371966515357106E-3</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="20">
         <f t="shared" si="35"/>
         <v>4.6057873022748164E-3</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="20">
         <f t="shared" si="35"/>
         <v>4.8333004932554881E-3</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="20">
         <f t="shared" si="35"/>
         <v>5.0204286033396729E-3</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="20">
         <f t="shared" si="35"/>
         <v>5.1685508606631797E-3</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="20">
         <f t="shared" si="35"/>
         <v>5.2795538451240317E-3</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="20">
         <f t="shared" si="35"/>
         <v>5.3556839783794044E-3</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="20">
         <f t="shared" si="35"/>
         <v>5.3994271539371278E-3</v>
       </c>
-      <c r="V21" s="23">
+      <c r="V21" s="20">
         <f t="shared" si="35"/>
         <v>5.4134113294645094E-3</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="20">
         <f t="shared" si="35"/>
         <v>5.4003284859565027E-3</v>
       </c>
-      <c r="X21" s="23">
+      <c r="X21" s="20">
         <f t="shared" si="35"/>
         <v>5.3628728647369603E-3</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y21" s="20">
         <f t="shared" si="35"/>
         <v>5.3036928329363185E-3</v>
       </c>
-      <c r="Z21" s="23">
+      <c r="Z21" s="20">
         <f t="shared" si="35"/>
         <v>5.225354109470161E-3</v>
       </c>
-      <c r="AA21" s="23">
+      <c r="AA21" s="20">
         <f t="shared" si="35"/>
         <v>5.1303124139936759E-3</v>
       </c>
-      <c r="AB21" s="23">
+      <c r="AB21" s="20">
         <f t="shared" ref="AB21:AD21" si="36">GAMMADIST(AB19,3,1/$B$2,0)</f>
         <v>5.0208938872889717E-3</v>
       </c>
-      <c r="AC21" s="23">
+      <c r="AC21" s="20">
         <f t="shared" si="36"/>
         <v>4.8992818787277582E-3</v>
       </c>
-      <c r="AD21" s="23">
+      <c r="AD21" s="20">
         <f t="shared" si="36"/>
         <v>4.767508909817089E-3</v>
       </c>
-      <c r="AE21" s="23">
+      <c r="AE21" s="20">
         <f t="shared" ref="AE21:AG21" si="37">GAMMADIST(AE19,3,1/$B$2,0)</f>
         <v>4.6274528067438486E-3</v>
       </c>
-      <c r="AF21" s="23">
+      <c r="AF21" s="20">
         <f t="shared" si="37"/>
         <v>4.4808361531077558E-3</v>
       </c>
-      <c r="AG21" s="25">
+      <c r="AG21" s="23">
         <f t="shared" si="37"/>
         <v>4.3292283500209056E-3</v>
       </c>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="26"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="23">
+        <v>56</v>
+      </c>
+      <c r="B22" s="30">
         <f>B21/B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="28">
         <f t="shared" ref="C22:AB22" si="38">C21/C20</f>
         <v>9.0497737556561111E-5</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="28">
         <f t="shared" si="38"/>
         <v>3.2786885245901656E-4</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="28">
         <f t="shared" si="38"/>
         <v>6.6914498141263908E-4</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="28">
         <f t="shared" si="38"/>
         <v>1.0810810810810813E-3</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="28">
         <f t="shared" si="38"/>
         <v>1.5384615384615387E-3</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="28">
         <f t="shared" si="38"/>
         <v>2.0224719101123593E-3</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="28">
         <f t="shared" si="38"/>
         <v>2.5192802056555265E-3</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="28">
         <f t="shared" si="38"/>
         <v>3.0188679245283022E-3</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="28">
         <f t="shared" si="38"/>
         <v>3.5140997830802605E-3</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="28">
         <f t="shared" si="38"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="28">
         <f t="shared" si="38"/>
         <v>4.4731977818853975E-3</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="28">
         <f t="shared" si="38"/>
         <v>4.9315068493150684E-3</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="28">
         <f t="shared" si="38"/>
         <v>5.3736089030206723E-3</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="28">
         <f t="shared" si="38"/>
         <v>5.7988165680473392E-3</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="28">
         <f t="shared" si="38"/>
         <v>6.2068965517241403E-3</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="28">
         <f t="shared" si="38"/>
         <v>6.597938144329899E-3</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="28">
         <f t="shared" si="38"/>
         <v>6.9722557297949338E-3</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T22" s="28">
         <f t="shared" si="38"/>
         <v>7.3303167420814492E-3</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="28">
         <f t="shared" si="38"/>
         <v>7.6726886291179639E-3</v>
       </c>
-      <c r="V22" s="23">
+      <c r="V22" s="28">
         <f t="shared" si="38"/>
         <v>8.0000000000000036E-3</v>
       </c>
-      <c r="W22" s="23">
+      <c r="W22" s="28">
         <f t="shared" si="38"/>
         <v>8.3129123468426019E-3</v>
       </c>
-      <c r="X22" s="23">
+      <c r="X22" s="28">
         <f t="shared" si="38"/>
         <v>8.6120996441281135E-3</v>
       </c>
-      <c r="Y22" s="23">
+      <c r="Y22" s="28">
         <f t="shared" si="38"/>
         <v>8.8982338099243084E-3</v>
       </c>
-      <c r="Z22" s="23">
+      <c r="Z22" s="28">
         <f t="shared" si="38"/>
         <v>9.1719745222929965E-3</v>
       </c>
-      <c r="AA22" s="23">
+      <c r="AA22" s="28">
         <f t="shared" si="38"/>
         <v>9.4339622641509448E-3</v>
       </c>
-      <c r="AB22" s="23">
+      <c r="AB22" s="28">
         <f t="shared" si="38"/>
         <v>9.6848137535816663E-3</v>
       </c>
-      <c r="AC22" s="23">
+      <c r="AC22" s="28">
         <f t="shared" ref="AC22" si="39">AC21/AC20</f>
         <v>9.9251191286589581E-3</v>
       </c>
-      <c r="AD22" s="23">
+      <c r="AD22" s="28">
         <f t="shared" ref="AD22" si="40">AD21/AD20</f>
         <v>1.0155440414507775E-2</v>
       </c>
-      <c r="AE22" s="23">
+      <c r="AE22" s="28">
         <f t="shared" ref="AE22" si="41">AE21/AE20</f>
         <v>1.0376310919185689E-2</v>
       </c>
-      <c r="AF22" s="23">
+      <c r="AF22" s="28">
         <f t="shared" ref="AF22" si="42">AF21/AF20</f>
         <v>1.0588235294117652E-2</v>
       </c>
-      <c r="AG22" s="25">
+      <c r="AG22" s="29">
         <f t="shared" ref="AG22" si="43">AG21/AG20</f>
         <v>1.0791690061763056E-2</v>
       </c>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
+    <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="46">
         <v>0</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="47">
         <v>5</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="47">
         <v>10</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="47">
         <v>15</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="47">
         <v>20</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="47">
         <v>25</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="47">
         <v>30</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="47">
         <v>35</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="47">
         <v>40</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="47">
         <v>45</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="47">
         <v>50</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="47">
         <v>55</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="47">
         <v>60</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="47">
         <v>65</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="47">
         <v>70</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24" s="47">
         <v>75</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="47">
         <v>80</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="47">
         <v>85</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="47">
         <v>90</v>
       </c>
-      <c r="U24" s="20">
+      <c r="U24" s="47">
         <v>95</v>
       </c>
-      <c r="V24" s="20">
+      <c r="V24" s="47">
         <v>100</v>
       </c>
-      <c r="W24" s="20">
+      <c r="W24" s="47">
         <v>105</v>
       </c>
-      <c r="X24" s="20">
+      <c r="X24" s="47">
         <v>110</v>
       </c>
-      <c r="Y24" s="20">
+      <c r="Y24" s="47">
         <v>115</v>
       </c>
-      <c r="Z24" s="20">
+      <c r="Z24" s="47">
         <v>120</v>
       </c>
-      <c r="AA24" s="20">
+      <c r="AA24" s="47">
         <v>125</v>
       </c>
-      <c r="AB24" s="21">
+      <c r="AB24" s="59">
         <v>130</v>
       </c>
-      <c r="AC24" s="20">
+      <c r="AC24" s="47">
         <v>135</v>
       </c>
-      <c r="AD24" s="21">
+      <c r="AD24" s="59">
         <v>140</v>
       </c>
-      <c r="AE24" s="20">
+      <c r="AE24" s="47">
         <v>145</v>
       </c>
-      <c r="AF24" s="21">
+      <c r="AF24" s="59">
         <v>150</v>
       </c>
-      <c r="AG24" s="21">
+      <c r="AG24" s="48">
         <v>155</v>
       </c>
-      <c r="AH24" s="27"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="23">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="26">
         <f>POWER(B20,5)</f>
         <v>1</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <f t="shared" ref="C25:AA25" si="44">POWER(C20,5)</f>
         <v>0.99922697378741188</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="20">
         <f t="shared" si="44"/>
         <v>0.99427076872751141</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="20">
         <f t="shared" si="44"/>
         <v>0.98213163207205723</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="20">
         <f t="shared" si="44"/>
         <v>0.96099164788147085</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="20">
         <f t="shared" si="44"/>
         <v>0.93010209332468419</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="20">
         <f t="shared" si="44"/>
         <v>0.88964463858425502</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="20">
         <f t="shared" si="44"/>
         <v>0.84055733370896202</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="20">
         <f t="shared" si="44"/>
         <v>0.78433460579165815</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="20">
         <f t="shared" si="44"/>
         <v>0.72281886713838706</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="20">
         <f t="shared" si="44"/>
         <v>0.65800263662944036</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="20">
         <f t="shared" si="44"/>
         <v>0.59185687501359863</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="20">
         <f t="shared" si="44"/>
         <v>0.52619578608987605</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="20">
         <f t="shared" si="44"/>
         <v>0.46258241225774316</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="20">
         <f t="shared" si="44"/>
         <v>0.40227415205007144</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q25" s="20">
         <f t="shared" si="44"/>
         <v>0.34620348894266856</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="20">
         <f t="shared" si="44"/>
         <v>0.29498692908096008</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="20">
         <f t="shared" si="44"/>
         <v>0.24895426923789366</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T25" s="20">
         <f t="shared" si="44"/>
         <v>0.2081905486110375</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U25" s="20">
         <f t="shared" si="44"/>
         <v>0.1725840120291999</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V25" s="20">
         <f t="shared" si="44"/>
         <v>0.14187478050776511</v>
       </c>
-      <c r="W25" s="23">
+      <c r="W25" s="20">
         <f t="shared" si="44"/>
         <v>0.11570040554219668</v>
       </c>
-      <c r="X25" s="23">
+      <c r="X25" s="20">
         <f t="shared" si="44"/>
         <v>9.3635875800122587E-2</v>
       </c>
-      <c r="Y25" s="23">
+      <c r="Y25" s="20">
         <f t="shared" si="44"/>
         <v>7.5226828529820058E-2</v>
       </c>
-      <c r="Z25" s="23">
+      <c r="Z25" s="20">
         <f t="shared" si="44"/>
         <v>6.0015639187481797E-2</v>
       </c>
-      <c r="AA25" s="23">
+      <c r="AA25" s="20">
         <f t="shared" si="44"/>
         <v>4.7560716569136192E-2</v>
       </c>
-      <c r="AB25" s="25">
+      <c r="AB25" s="21">
         <f t="shared" ref="AB25:AC25" si="45">POWER(AB20,5)</f>
         <v>3.7449743576620134E-2</v>
       </c>
-      <c r="AC25" s="23">
+      <c r="AC25" s="20">
         <f t="shared" si="45"/>
         <v>2.9307818607886903E-2</v>
       </c>
-      <c r="AD25" s="25">
+      <c r="AD25" s="21">
         <f t="shared" ref="AD25:AG25" si="46">POWER(AD20,5)</f>
         <v>2.2801517691588408E-2</v>
       </c>
-      <c r="AE25" s="23">
+      <c r="AE25" s="20">
         <f t="shared" si="46"/>
         <v>1.7639858957151255E-2</v>
       </c>
-      <c r="AF25" s="25">
+      <c r="AF25" s="21">
         <f t="shared" si="46"/>
         <v>1.3573048471273762E-2</v>
       </c>
-      <c r="AG25" s="25">
+      <c r="AG25" s="23">
         <f t="shared" si="46"/>
         <v>1.0389751241225067E-2</v>
       </c>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="26"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
-      <c r="AR25" s="26"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="23">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="26">
         <f>B27*B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <f t="shared" ref="C26:AA26" si="47">C27*C25</f>
         <v>4.5213890216624984E-4</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="20">
         <f t="shared" si="47"/>
         <v>1.6299520798811671E-3</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="20">
         <f t="shared" si="47"/>
         <v>3.2859422634381082E-3</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="20">
         <f t="shared" si="47"/>
         <v>5.1945494480079516E-3</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="20">
         <f t="shared" si="47"/>
         <v>7.1546314871129566E-3</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="20">
         <f t="shared" si="47"/>
         <v>8.9964064575935882E-3</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="20">
         <f t="shared" si="47"/>
         <v>1.0587997262657875E-2</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="20">
         <f t="shared" si="47"/>
         <v>1.1839012917609935E-2</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="20">
         <f t="shared" si="47"/>
         <v>1.2700288121086629E-2</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="20">
         <f t="shared" si="47"/>
         <v>1.3160052732588808E-2</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="20">
         <f t="shared" si="47"/>
         <v>1.3237464302522262E-2</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="20">
         <f t="shared" si="47"/>
         <v>1.2974690615914752E-2</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="20">
         <f t="shared" si="47"/>
         <v>1.2428684844444938E-2</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="20">
         <f t="shared" si="47"/>
         <v>1.1663570089025745E-2</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="20">
         <f t="shared" si="47"/>
         <v>1.074424620856558E-2</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="20">
         <f t="shared" si="47"/>
         <v>9.7315275573100248E-3</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="20">
         <f t="shared" si="47"/>
         <v>8.6788641507540738E-3</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="20">
         <f t="shared" si="47"/>
         <v>7.6305133201330505E-3</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="20">
         <f t="shared" si="47"/>
         <v>6.6209169333200004E-3</v>
       </c>
-      <c r="V26" s="23">
+      <c r="V26" s="20">
         <f t="shared" si="47"/>
         <v>5.6749912203106073E-3</v>
       </c>
-      <c r="W26" s="23">
+      <c r="W26" s="20">
         <f t="shared" si="47"/>
         <v>4.8090366488321148E-3</v>
       </c>
-      <c r="X26" s="23">
+      <c r="X26" s="20">
         <f t="shared" si="47"/>
         <v>4.0320074632792993E-3</v>
       </c>
-      <c r="Y26" s="23">
+      <c r="Y26" s="20">
         <f t="shared" si="47"/>
         <v>3.346929545187117E-3</v>
       </c>
-      <c r="Z26" s="23">
+      <c r="Z26" s="20">
         <f t="shared" si="47"/>
         <v>2.7523095678335611E-3</v>
       </c>
-      <c r="AA26" s="23">
+      <c r="AA26" s="20">
         <f t="shared" si="47"/>
         <v>2.2434300268460469E-3</v>
       </c>
-      <c r="AB26" s="25">
+      <c r="AB26" s="21">
         <f t="shared" ref="AB26" si="48">AB27*AB25</f>
         <v>1.8134689582947868E-3</v>
       </c>
-      <c r="AC26" s="23">
+      <c r="AC26" s="20">
         <f t="shared" ref="AC26" si="49">AC27*AC25</f>
         <v>1.4544179554220262E-3</v>
       </c>
-      <c r="AD26" s="25">
+      <c r="AD26" s="21">
         <f t="shared" ref="AD26" si="50">AD27*AD25</f>
         <v>1.1577972713863549E-3</v>
       </c>
-      <c r="AE26" s="23">
+      <c r="AE26" s="20">
         <f t="shared" ref="AE26" si="51">AE27*AE25</f>
         <v>9.1518330554992019E-4</v>
       </c>
-      <c r="AF26" s="25">
+      <c r="AF26" s="21">
         <f t="shared" ref="AF26" si="52">AF27*AF25</f>
         <v>7.1857315436155242E-4</v>
       </c>
-      <c r="AG26" s="25">
+      <c r="AG26" s="23">
         <f t="shared" ref="AG26" si="53">AG27*AG25</f>
         <v>5.6061487607059473E-4</v>
       </c>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="26"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="22"/>
+      <c r="AR26" s="22"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="23">
+        <v>68</v>
+      </c>
+      <c r="B27" s="30">
         <f>5*B22</f>
         <v>0</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="28">
         <f t="shared" ref="C27:AA27" si="54">5*C22</f>
         <v>4.5248868778280556E-4</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="28">
         <f t="shared" si="54"/>
         <v>1.6393442622950828E-3</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="28">
         <f t="shared" si="54"/>
         <v>3.3457249070631954E-3</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="28">
         <f t="shared" si="54"/>
         <v>5.4054054054054066E-3</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="28">
         <f t="shared" si="54"/>
         <v>7.6923076923076936E-3</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="28">
         <f t="shared" si="54"/>
         <v>1.0112359550561795E-2</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="28">
         <f t="shared" si="54"/>
         <v>1.2596401028277632E-2</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="28">
         <f t="shared" si="54"/>
         <v>1.5094339622641511E-2</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="28">
         <f t="shared" si="54"/>
         <v>1.7570498915401304E-2</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="28">
         <f t="shared" si="54"/>
         <v>0.02</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="28">
         <f t="shared" si="54"/>
         <v>2.2365988909426988E-2</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="28">
         <f t="shared" si="54"/>
         <v>2.4657534246575342E-2</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="28">
         <f t="shared" si="54"/>
         <v>2.6868044515103363E-2</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="28">
         <f t="shared" si="54"/>
         <v>2.8994082840236697E-2</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="28">
         <f t="shared" si="54"/>
         <v>3.1034482758620703E-2</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="28">
         <f t="shared" si="54"/>
         <v>3.2989690721649492E-2</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="28">
         <f t="shared" si="54"/>
         <v>3.4861278648974668E-2</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T27" s="28">
         <f t="shared" si="54"/>
         <v>3.6651583710407248E-2</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U27" s="28">
         <f t="shared" si="54"/>
         <v>3.8363443145589822E-2</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V27" s="28">
         <f t="shared" si="54"/>
         <v>4.0000000000000022E-2</v>
       </c>
-      <c r="W27" s="23">
+      <c r="W27" s="28">
         <f t="shared" si="54"/>
         <v>4.156456173421301E-2</v>
       </c>
-      <c r="X27" s="23">
+      <c r="X27" s="28">
         <f t="shared" si="54"/>
         <v>4.3060498220640564E-2</v>
       </c>
-      <c r="Y27" s="23">
+      <c r="Y27" s="28">
         <f t="shared" si="54"/>
         <v>4.449116904962154E-2</v>
       </c>
-      <c r="Z27" s="23">
+      <c r="Z27" s="28">
         <f t="shared" si="54"/>
         <v>4.5859872611464986E-2</v>
       </c>
-      <c r="AA27" s="23">
+      <c r="AA27" s="28">
         <f t="shared" si="54"/>
         <v>4.716981132075472E-2</v>
       </c>
-      <c r="AB27" s="25">
+      <c r="AB27" s="35">
         <f t="shared" ref="AB27:AC27" si="55">5*AB22</f>
         <v>4.8424068767908335E-2</v>
       </c>
-      <c r="AC27" s="23">
+      <c r="AC27" s="28">
         <f t="shared" si="55"/>
         <v>4.9625595643294787E-2</v>
       </c>
-      <c r="AD27" s="25">
+      <c r="AD27" s="35">
         <f t="shared" ref="AD27:AG27" si="56">5*AD22</f>
         <v>5.0777202072538878E-2</v>
       </c>
-      <c r="AE27" s="23">
+      <c r="AE27" s="28">
         <f t="shared" si="56"/>
         <v>5.1881554595928442E-2</v>
       </c>
-      <c r="AF27" s="25">
+      <c r="AF27" s="35">
         <f t="shared" si="56"/>
         <v>5.2941176470588255E-2</v>
       </c>
-      <c r="AG27" s="25">
+      <c r="AG27" s="29">
         <f t="shared" si="56"/>
         <v>5.3958450308815284E-2</v>
       </c>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="26"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="26"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="26"/>
-      <c r="AR27" s="26"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:O5"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
